--- a/data/nzd0137/nzd0137.xlsx
+++ b/data/nzd0137/nzd0137.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O558"/>
+  <dimension ref="A1:O565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24881,7 +24881,9 @@
           <t>2024-11-18 22:11:59+00:00</t>
         </is>
       </c>
-      <c r="B558" t="inlineStr"/>
+      <c r="B558" t="n">
+        <v>472.94</v>
+      </c>
       <c r="C558" t="n">
         <v>474.87</v>
       </c>
@@ -24919,6 +24921,351 @@
         <v>371.8464705882353</v>
       </c>
       <c r="O558" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>497.61</v>
+      </c>
+      <c r="C559" t="n">
+        <v>478.05</v>
+      </c>
+      <c r="D559" t="inlineStr"/>
+      <c r="E559" t="n">
+        <v>373.7733333333333</v>
+      </c>
+      <c r="F559" t="n">
+        <v>370.8733333333333</v>
+      </c>
+      <c r="G559" t="n">
+        <v>368.5133333333333</v>
+      </c>
+      <c r="H559" t="n">
+        <v>372.2233333333333</v>
+      </c>
+      <c r="I559" t="n">
+        <v>371.39</v>
+      </c>
+      <c r="J559" t="n">
+        <v>382.08</v>
+      </c>
+      <c r="K559" t="n">
+        <v>386.8118181818182</v>
+      </c>
+      <c r="L559" t="n">
+        <v>391.51</v>
+      </c>
+      <c r="M559" t="n">
+        <v>387.87</v>
+      </c>
+      <c r="N559" t="n">
+        <v>382.0329411764706</v>
+      </c>
+      <c r="O559" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>462.76</v>
+      </c>
+      <c r="C560" t="n">
+        <v>422.54</v>
+      </c>
+      <c r="D560" t="n">
+        <v>407.86</v>
+      </c>
+      <c r="E560" t="n">
+        <v>372.0633333333333</v>
+      </c>
+      <c r="F560" t="n">
+        <v>356.4333333333333</v>
+      </c>
+      <c r="G560" t="n">
+        <v>361.4633333333333</v>
+      </c>
+      <c r="H560" t="n">
+        <v>365.6333333333333</v>
+      </c>
+      <c r="I560" t="n">
+        <v>368.54</v>
+      </c>
+      <c r="J560" t="n">
+        <v>370.75</v>
+      </c>
+      <c r="K560" t="n">
+        <v>378.6409090909091</v>
+      </c>
+      <c r="L560" t="n">
+        <v>382.74</v>
+      </c>
+      <c r="M560" t="n">
+        <v>390.7938461538461</v>
+      </c>
+      <c r="N560" t="n">
+        <v>376.9694117647059</v>
+      </c>
+      <c r="O560" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>434.15</v>
+      </c>
+      <c r="C561" t="n">
+        <v>404.4</v>
+      </c>
+      <c r="D561" t="n">
+        <v>394.75</v>
+      </c>
+      <c r="E561" t="n">
+        <v>377.9166666666667</v>
+      </c>
+      <c r="F561" t="n">
+        <v>373.0766666666667</v>
+      </c>
+      <c r="G561" t="n">
+        <v>386.6266666666667</v>
+      </c>
+      <c r="H561" t="n">
+        <v>385.0766666666667</v>
+      </c>
+      <c r="I561" t="n">
+        <v>390.85</v>
+      </c>
+      <c r="J561" t="n">
+        <v>388.56</v>
+      </c>
+      <c r="K561" t="n">
+        <v>396.1590909090909</v>
+      </c>
+      <c r="L561" t="n">
+        <v>395.9500000000001</v>
+      </c>
+      <c r="M561" t="n">
+        <v>404.1361538461539</v>
+      </c>
+      <c r="N561" t="n">
+        <v>390.0405882352941</v>
+      </c>
+      <c r="O561" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>397.71</v>
+      </c>
+      <c r="C562" t="n">
+        <v>374.18</v>
+      </c>
+      <c r="D562" t="n">
+        <v>371.81</v>
+      </c>
+      <c r="E562" t="n">
+        <v>363.3533333333333</v>
+      </c>
+      <c r="F562" t="n">
+        <v>354.3333333333333</v>
+      </c>
+      <c r="G562" t="n">
+        <v>360.7733333333333</v>
+      </c>
+      <c r="H562" t="n">
+        <v>364.2033333333333</v>
+      </c>
+      <c r="I562" t="n">
+        <v>362.83</v>
+      </c>
+      <c r="J562" t="n">
+        <v>373.89</v>
+      </c>
+      <c r="K562" t="n">
+        <v>372.319090909091</v>
+      </c>
+      <c r="L562" t="n">
+        <v>377</v>
+      </c>
+      <c r="M562" t="inlineStr"/>
+      <c r="N562" t="inlineStr"/>
+      <c r="O562" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>448.04</v>
+      </c>
+      <c r="C563" t="n">
+        <v>442.47</v>
+      </c>
+      <c r="D563" t="n">
+        <v>402.37</v>
+      </c>
+      <c r="E563" t="n">
+        <v>372.51</v>
+      </c>
+      <c r="F563" t="n">
+        <v>375.99</v>
+      </c>
+      <c r="G563" t="n">
+        <v>380.02</v>
+      </c>
+      <c r="H563" t="n">
+        <v>391.39</v>
+      </c>
+      <c r="I563" t="n">
+        <v>381.99</v>
+      </c>
+      <c r="J563" t="n">
+        <v>395.23</v>
+      </c>
+      <c r="K563" t="n">
+        <v>392.0227272727273</v>
+      </c>
+      <c r="L563" t="n">
+        <v>397.53</v>
+      </c>
+      <c r="M563" t="n">
+        <v>393.8230769230769</v>
+      </c>
+      <c r="N563" t="n">
+        <v>394.0123529411765</v>
+      </c>
+      <c r="O563" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr"/>
+      <c r="C564" t="n">
+        <v>484.65</v>
+      </c>
+      <c r="D564" t="n">
+        <v>410.1</v>
+      </c>
+      <c r="E564" t="n">
+        <v>369.7966666666667</v>
+      </c>
+      <c r="F564" t="n">
+        <v>367.1266666666667</v>
+      </c>
+      <c r="G564" t="n">
+        <v>368.1366666666667</v>
+      </c>
+      <c r="H564" t="n">
+        <v>372.3066666666667</v>
+      </c>
+      <c r="I564" t="n">
+        <v>371.14</v>
+      </c>
+      <c r="J564" t="n">
+        <v>383.96</v>
+      </c>
+      <c r="K564" t="n">
+        <v>383.6072727272728</v>
+      </c>
+      <c r="L564" t="n">
+        <v>389.22</v>
+      </c>
+      <c r="M564" t="n">
+        <v>384.7361538461539</v>
+      </c>
+      <c r="N564" t="n">
+        <v>380.4641176470589</v>
+      </c>
+      <c r="O564" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:11:57+00:00</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr"/>
+      <c r="C565" t="n">
+        <v>500.9500000000001</v>
+      </c>
+      <c r="D565" t="inlineStr"/>
+      <c r="E565" t="n">
+        <v>379.9333333333333</v>
+      </c>
+      <c r="F565" t="n">
+        <v>380.2033333333333</v>
+      </c>
+      <c r="G565" t="n">
+        <v>380.1433333333333</v>
+      </c>
+      <c r="H565" t="n">
+        <v>381.8033333333333</v>
+      </c>
+      <c r="I565" t="n">
+        <v>380.71</v>
+      </c>
+      <c r="J565" t="n">
+        <v>389.74</v>
+      </c>
+      <c r="K565" t="n">
+        <v>391.2309090909091</v>
+      </c>
+      <c r="L565" t="n">
+        <v>397.22</v>
+      </c>
+      <c r="M565" t="n">
+        <v>392.2538461538462</v>
+      </c>
+      <c r="N565" t="n">
+        <v>387.6394117647058</v>
+      </c>
+      <c r="O565" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -24935,7 +25282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B568"/>
+  <dimension ref="A1:B575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30623,6 +30970,76 @@
       </c>
       <c r="B568" t="n">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>-0.65</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>-0.38</v>
       </c>
     </row>
   </sheetData>
@@ -30785,28 +31202,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.07703480873806928</v>
+        <v>-0.1012538678537405</v>
       </c>
       <c r="J2" t="n">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="K2" t="n">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002391754798211077</v>
+        <v>0.0004214417466367193</v>
       </c>
       <c r="M2" t="n">
-        <v>28.28771980592852</v>
+        <v>28.24698375800103</v>
       </c>
       <c r="N2" t="n">
-        <v>1259.946079895056</v>
+        <v>1255.081222915609</v>
       </c>
       <c r="O2" t="n">
-        <v>35.49571917703678</v>
+        <v>35.42712552431553</v>
       </c>
       <c r="P2" t="n">
-        <v>460.4631287947897</v>
+        <v>460.7217417823723</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -30862,28 +31279,28 @@
         <v>0.0103</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4114009504869927</v>
+        <v>-0.4333261989917548</v>
       </c>
       <c r="J3" t="n">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="K3" t="n">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="L3" t="n">
-        <v>0.009469622630143948</v>
+        <v>0.0104338116796634</v>
       </c>
       <c r="M3" t="n">
-        <v>23.78544445451082</v>
+        <v>24.06820987785645</v>
       </c>
       <c r="N3" t="n">
-        <v>815.5277994848548</v>
+        <v>836.3308807028228</v>
       </c>
       <c r="O3" t="n">
-        <v>28.55744735589746</v>
+        <v>28.91938589774725</v>
       </c>
       <c r="P3" t="n">
-        <v>460.0351813087911</v>
+        <v>460.2759243236306</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -30939,28 +31356,28 @@
         <v>0.0215</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1468421264260136</v>
+        <v>-0.1527127210281904</v>
       </c>
       <c r="J4" t="n">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="K4" t="n">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003799398937831433</v>
+        <v>0.004185591604295325</v>
       </c>
       <c r="M4" t="n">
-        <v>13.49058991631923</v>
+        <v>13.45088011665548</v>
       </c>
       <c r="N4" t="n">
-        <v>282.8880152213703</v>
+        <v>281.5658153360612</v>
       </c>
       <c r="O4" t="n">
-        <v>16.81927510986637</v>
+        <v>16.7799229836153</v>
       </c>
       <c r="P4" t="n">
-        <v>403.1422488161442</v>
+        <v>403.2040824074828</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -31016,28 +31433,28 @@
         <v>0.0316</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.05638326153935456</v>
+        <v>-0.07886493661481889</v>
       </c>
       <c r="J5" t="n">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="K5" t="n">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0009880522318976848</v>
+        <v>0.001982941906978675</v>
       </c>
       <c r="M5" t="n">
-        <v>9.832724265249338</v>
+        <v>9.777004301941764</v>
       </c>
       <c r="N5" t="n">
-        <v>162.0352886351621</v>
+        <v>160.4645994079168</v>
       </c>
       <c r="O5" t="n">
-        <v>12.72930825438531</v>
+        <v>12.66746223234618</v>
       </c>
       <c r="P5" t="n">
-        <v>381.0307308982191</v>
+        <v>381.2647144700466</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -31093,28 +31510,28 @@
         <v>0.0308</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.08869111931044663</v>
+        <v>-0.1159970172002926</v>
       </c>
       <c r="J6" t="n">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="K6" t="n">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003320584783728542</v>
+        <v>0.005740765879816201</v>
       </c>
       <c r="M6" t="n">
-        <v>8.195203832428147</v>
+        <v>8.232768180871496</v>
       </c>
       <c r="N6" t="n">
-        <v>118.181511298199</v>
+        <v>118.6765373528352</v>
       </c>
       <c r="O6" t="n">
-        <v>10.87113201548942</v>
+        <v>10.89387613996208</v>
       </c>
       <c r="P6" t="n">
-        <v>378.9505465552294</v>
+        <v>379.2337867420474</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -31170,28 +31587,28 @@
         <v>0.0318</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04116235451045495</v>
+        <v>-0.06859169668828423</v>
       </c>
       <c r="J7" t="n">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="K7" t="n">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000723582341485618</v>
+        <v>0.002031519181965868</v>
       </c>
       <c r="M7" t="n">
-        <v>8.183960917880968</v>
+        <v>8.218198936384661</v>
       </c>
       <c r="N7" t="n">
-        <v>115.3220989261805</v>
+        <v>115.9659311029802</v>
       </c>
       <c r="O7" t="n">
-        <v>10.7388127335465</v>
+        <v>10.768747889285</v>
       </c>
       <c r="P7" t="n">
-        <v>381.7925601661114</v>
+        <v>382.0775946329801</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -31247,28 +31664,28 @@
         <v>0.0313</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.004542398474011518</v>
+        <v>-0.01277257789111082</v>
       </c>
       <c r="J8" t="n">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="K8" t="n">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="L8" t="n">
-        <v>1.153431893785584e-05</v>
+        <v>9.261729581910849e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>7.008631472270008</v>
+        <v>7.031012532458123</v>
       </c>
       <c r="N8" t="n">
-        <v>88.58922359316334</v>
+        <v>88.70912757680514</v>
       </c>
       <c r="O8" t="n">
-        <v>9.412184846950433</v>
+        <v>9.418552307908319</v>
       </c>
       <c r="P8" t="n">
-        <v>378.8081099711676</v>
+        <v>378.8938311359891</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -31324,28 +31741,28 @@
         <v>0.0406</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06175673774230256</v>
+        <v>0.04553973407442306</v>
       </c>
       <c r="J9" t="n">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="K9" t="n">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002128325338717207</v>
+        <v>0.001175520421818566</v>
       </c>
       <c r="M9" t="n">
-        <v>7.068311138571682</v>
+        <v>7.087690234729067</v>
       </c>
       <c r="N9" t="n">
-        <v>88.18844710489248</v>
+        <v>88.42618764309996</v>
       </c>
       <c r="O9" t="n">
-        <v>9.39087041252793</v>
+        <v>9.403519960264878</v>
       </c>
       <c r="P9" t="n">
-        <v>378.8681491785084</v>
+        <v>379.0371954132576</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -31401,28 +31818,28 @@
         <v>0.044</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.0159498790388207</v>
+        <v>-0.0308339039012756</v>
       </c>
       <c r="J10" t="n">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="K10" t="n">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001271082269025392</v>
+        <v>0.0004840916827381081</v>
       </c>
       <c r="M10" t="n">
-        <v>7.643007343916039</v>
+        <v>7.628939417736335</v>
       </c>
       <c r="N10" t="n">
-        <v>98.24718273275954</v>
+        <v>98.07263270622369</v>
       </c>
       <c r="O10" t="n">
-        <v>9.911971687447435</v>
+        <v>9.903162762785618</v>
       </c>
       <c r="P10" t="n">
-        <v>388.6031030954899</v>
+        <v>388.7579491999648</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -31478,28 +31895,28 @@
         <v>0.0563</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02697278336552779</v>
+        <v>0.01729118750304768</v>
       </c>
       <c r="J11" t="n">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="K11" t="n">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0005827980879780092</v>
+        <v>0.0002431677519512121</v>
       </c>
       <c r="M11" t="n">
-        <v>6.107240829923424</v>
+        <v>6.111335463583444</v>
       </c>
       <c r="N11" t="n">
-        <v>62.68142150970942</v>
+        <v>62.77331963558169</v>
       </c>
       <c r="O11" t="n">
-        <v>7.917159939631725</v>
+        <v>7.922961544497215</v>
       </c>
       <c r="P11" t="n">
-        <v>388.2667573130472</v>
+        <v>388.3670983685917</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -31555,28 +31972,28 @@
         <v>0.0514</v>
       </c>
       <c r="I12" t="n">
-        <v>0.08163934686629698</v>
+        <v>0.0651189140195384</v>
       </c>
       <c r="J12" t="n">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="K12" t="n">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="L12" t="n">
-        <v>0.004451013049366681</v>
+        <v>0.002882041856477113</v>
       </c>
       <c r="M12" t="n">
-        <v>6.237696569224785</v>
+        <v>6.231977827944357</v>
       </c>
       <c r="N12" t="n">
-        <v>75.71684020745316</v>
+        <v>75.7791617331787</v>
       </c>
       <c r="O12" t="n">
-        <v>8.701542403933521</v>
+        <v>8.705122729357623</v>
       </c>
       <c r="P12" t="n">
-        <v>393.4111789775018</v>
+        <v>393.5803137901156</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -31632,28 +32049,28 @@
         <v>0.0709</v>
       </c>
       <c r="I13" t="n">
-        <v>0.07329393282944584</v>
+        <v>0.07471617615001899</v>
       </c>
       <c r="J13" t="n">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="K13" t="n">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003810374222994128</v>
+        <v>0.004046096498759311</v>
       </c>
       <c r="M13" t="n">
-        <v>6.068659051843313</v>
+        <v>6.047265785815418</v>
       </c>
       <c r="N13" t="n">
-        <v>70.68024117295576</v>
+        <v>70.20944914322729</v>
       </c>
       <c r="O13" t="n">
-        <v>8.407154166122789</v>
+        <v>8.379107896621649</v>
       </c>
       <c r="P13" t="n">
-        <v>389.8876297031633</v>
+        <v>389.8730173167098</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -31709,28 +32126,28 @@
         <v>0.09039999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>0.06566528880080262</v>
+        <v>0.05856855427684775</v>
       </c>
       <c r="J14" t="n">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="K14" t="n">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003321128490479053</v>
+        <v>0.002698100006059745</v>
       </c>
       <c r="M14" t="n">
-        <v>6.392839052568888</v>
+        <v>6.378800771310944</v>
       </c>
       <c r="N14" t="n">
-        <v>65.20257808172313</v>
+        <v>64.85933043635468</v>
       </c>
       <c r="O14" t="n">
-        <v>8.074811334125593</v>
+        <v>8.053529067207412</v>
       </c>
       <c r="P14" t="n">
-        <v>386.0736708196255</v>
+        <v>386.1465950939478</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -31767,7 +32184,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O558"/>
+  <dimension ref="A1:O565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66682,7 +67099,11 @@
           <t>2024-11-18 22:11:59+00:00</t>
         </is>
       </c>
-      <c r="B558" t="inlineStr"/>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>-36.562088305430905,174.69813764824477</t>
+        </is>
+      </c>
       <c r="C558" t="inlineStr">
         <is>
           <t>-36.56278994553771,174.69788928771874</t>
@@ -66744,6 +67165,521 @@
         </is>
       </c>
       <c r="O558" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>-36.56215170577854,174.6984018196935</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>-36.56279857262597,174.69792316732642</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr"/>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>-36.56389313349263,174.69624663998</t>
+        </is>
+      </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>-36.564536942764036,174.69581528112982</t>
+        </is>
+      </c>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>-36.56515951291471,174.69537280257745</t>
+        </is>
+      </c>
+      <c r="H559" t="inlineStr">
+        <is>
+          <t>-36.565847528563,174.69514665475884</t>
+        </is>
+      </c>
+      <c r="I559" t="inlineStr">
+        <is>
+          <t>-36.56653611627922,174.6948969226811</t>
+        </is>
+      </c>
+      <c r="J559" t="inlineStr">
+        <is>
+          <t>-36.567238122865895,174.6948263230859</t>
+        </is>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>-36.56794416405098,174.69483802065872</t>
+        </is>
+      </c>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>-36.56865422276025,174.69484835891248</t>
+        </is>
+      </c>
+      <c r="M559" t="inlineStr">
+        <is>
+          <t>-36.569341828368735,174.69484039728997</t>
+        </is>
+      </c>
+      <c r="N559" t="inlineStr">
+        <is>
+          <t>-36.57002694046833,174.69495961124863</t>
+        </is>
+      </c>
+      <c r="O559" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>-36.56206214329733,174.6980286388246</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>-36.562647976976876,174.69733176677977</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>-36.563290266521534,174.69688063036912</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>-36.56388756446167,174.69622882628724</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>-36.56447896822335,174.69567084382032</t>
+        </is>
+      </c>
+      <c r="G560" t="inlineStr">
+        <is>
+          <t>-36.56513571921403,174.69529976786595</t>
+        </is>
+      </c>
+      <c r="H560" t="inlineStr">
+        <is>
+          <t>-36.565831331388836,174.69507581821867</t>
+        </is>
+      </c>
+      <c r="I560" t="inlineStr">
+        <is>
+          <t>-36.56653021451978,174.6948659324366</t>
+        </is>
+      </c>
+      <c r="J560" t="inlineStr">
+        <is>
+          <t>-36.567226007641985,174.6947006294966</t>
+        </is>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>-36.56794156783093,174.69474678470797</t>
+        </is>
+      </c>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>-36.568654879007255,174.6947503751074</t>
+        </is>
+      </c>
+      <c r="M560" t="inlineStr">
+        <is>
+          <t>-36.56933820220747,174.6948727549167</t>
+        </is>
+      </c>
+      <c r="N560" t="inlineStr">
+        <is>
+          <t>-36.57003713163788,174.69490446423532</t>
+        </is>
+      </c>
+      <c r="O560" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>-36.5619886163634,174.69772227775394</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>-36.56259876348097,174.6971385046731</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>-36.56325456707195,174.6967410081478</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>-36.56390662725414,174.69628980260248</t>
+        </is>
+      </c>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>-36.5645457888172,174.69583732017458</t>
+        </is>
+      </c>
+      <c r="G561" t="inlineStr">
+        <is>
+          <t>-36.565220645077,174.69556044846038</t>
+        </is>
+      </c>
+      <c r="H561" t="inlineStr">
+        <is>
+          <t>-36.565879119893,174.69528481654868</t>
+        </is>
+      </c>
+      <c r="I561" t="inlineStr">
+        <is>
+          <t>-36.56657641368801,174.69510852636319</t>
+        </is>
+      </c>
+      <c r="J561" t="inlineStr">
+        <is>
+          <t>-36.56724505190124,174.69489821140294</t>
+        </is>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>-36.56794713396229,174.6949423918294</t>
+        </is>
+      </c>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>-36.56865389049047,174.6948979653068</t>
+        </is>
+      </c>
+      <c r="M561" t="inlineStr">
+        <is>
+          <t>-36.56932165493373,174.69502041155272</t>
+        </is>
+      </c>
+      <c r="N561" t="inlineStr">
+        <is>
+          <t>-36.57001082373583,174.69504682268226</t>
+        </is>
+      </c>
+      <c r="O561" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>-36.561894965375515,174.6973320724224</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>-36.562516776449826,174.69681654373392</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>-36.56319209944074,174.69649669618082</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>-36.56385919818556,174.69613809108355</t>
+        </is>
+      </c>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>-36.564470537007736,174.69564983841198</t>
+        </is>
+      </c>
+      <c r="G562" t="inlineStr">
+        <is>
+          <t>-36.56513339046638,174.69529261979014</t>
+        </is>
+      </c>
+      <c r="H562" t="inlineStr">
+        <is>
+          <t>-36.56582781667012,174.6950604470156</t>
+        </is>
+      </c>
+      <c r="I562" t="inlineStr">
+        <is>
+          <t>-36.56651839026834,174.6948038432232</t>
+        </is>
+      </c>
+      <c r="J562" t="inlineStr">
+        <is>
+          <t>-36.56722936527258,174.69473546425667</t>
+        </is>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>-36.567939559091926,174.6946761956135</t>
+        </is>
+      </c>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>-36.56865530847994,174.6946862443133</t>
+        </is>
+      </c>
+      <c r="M562" t="inlineStr"/>
+      <c r="N562" t="inlineStr"/>
+      <c r="O562" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>-36.562024313391845,174.69787101432502</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>-36.562702046341656,174.69754409967288</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>-36.56327531688679,174.69682216155212</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>-36.56388901914059,174.69623347937633</t>
+        </is>
+      </c>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>-36.56455748540752,174.6958664610673</t>
+        </is>
+      </c>
+      <c r="G563" t="inlineStr">
+        <is>
+          <t>-36.56519834773536,174.69549200636985</t>
+        </is>
+      </c>
+      <c r="H563" t="inlineStr">
+        <is>
+          <t>-36.56589463694393,174.6953526792511</t>
+        </is>
+      </c>
+      <c r="I563" t="inlineStr">
+        <is>
+          <t>-36.566558066610895,174.69501218468181</t>
+        </is>
+      </c>
+      <c r="J563" t="inlineStr">
+        <is>
+          <t>-36.56725218405708,174.6949722075681</t>
+        </is>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>-36.56794581972573,174.6948962054034</t>
+        </is>
+      </c>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>-36.56865377224534,174.69491561803244</t>
+        </is>
+      </c>
+      <c r="M563" t="inlineStr">
+        <is>
+          <t>-36.56933444533875,174.69490627881058</t>
+        </is>
+      </c>
+      <c r="N563" t="inlineStr">
+        <is>
+          <t>-36.57000282986999,174.69509007923145</t>
+        </is>
+      </c>
+      <c r="O563" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr"/>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>-36.562816477872104,174.69799348351626</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>-36.56329636618195,174.69690448650465</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>-36.563880182506104,174.69620521359892</t>
+        </is>
+      </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>-36.564521900449094,174.69577780476243</t>
+        </is>
+      </c>
+      <c r="G564" t="inlineStr">
+        <is>
+          <t>-36.565158241668506,174.6953689004854</t>
+        </is>
+      </c>
+      <c r="H564" t="inlineStr">
+        <is>
+          <t>-36.565847733382846,174.695147550517</t>
+        </is>
+      </c>
+      <c r="I564" t="inlineStr">
+        <is>
+          <t>-36.56653559858135,174.6948942042384</t>
+        </is>
+      </c>
+      <c r="J564" t="inlineStr">
+        <is>
+          <t>-36.56724013314609,174.6948471795718</t>
+        </is>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>-36.56794314584885,174.69480223886853</t>
+        </is>
+      </c>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>-36.568654394125566,174.694822773632</t>
+        </is>
+      </c>
+      <c r="M564" t="inlineStr">
+        <is>
+          <t>-36.569345714962864,174.69480571563102</t>
+        </is>
+      </c>
+      <c r="N564" t="inlineStr">
+        <is>
+          <t>-36.57003009798138,174.69494252515773</t>
+        </is>
+      </c>
+      <c r="O564" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:11:57+00:00</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr"/>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>-36.562860698222586,174.69816714333004</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr"/>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>-36.56391319500837,174.6963108109638</t>
+        </is>
+      </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>-36.56457440128709,174.6959086053484</t>
+        </is>
+      </c>
+      <c r="G565" t="inlineStr">
+        <is>
+          <t>-36.565198763982785,174.69549328404727</t>
+        </is>
+      </c>
+      <c r="H565" t="inlineStr">
+        <is>
+          <t>-36.56587107460608,174.69524963114497</t>
+        </is>
+      </c>
+      <c r="I565" t="inlineStr">
+        <is>
+          <t>-36.566555416010814,174.6949982662483</t>
+        </is>
+      </c>
+      <c r="J565" t="inlineStr">
+        <is>
+          <t>-36.567246313665315,174.69491130217793</t>
+        </is>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>-36.56794556814127,174.69488736400194</t>
+        </is>
+      </c>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>-36.56865379544554,174.69491215452297</t>
+        </is>
+      </c>
+      <c r="M565" t="inlineStr">
+        <is>
+          <t>-36.56933639150857,174.69488891244652</t>
+        </is>
+      </c>
+      <c r="N565" t="inlineStr">
+        <is>
+          <t>-36.57001565651274,174.69502067142852</t>
+        </is>
+      </c>
+      <c r="O565" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0137/nzd0137.xlsx
+++ b/data/nzd0137/nzd0137.xlsx
@@ -31053,7 +31053,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31144,35 +31144,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -31225,27 +31230,28 @@
       <c r="P2" t="n">
         <v>460.7217417823723</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.69307338857172 -36.56087276386966, 174.70294077624177 -36.563240932878394)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.6930733885717</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.56087276386966</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.7029407762418</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.56324093287839</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.6980070824067</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.56205684837403</v>
       </c>
     </row>
@@ -31302,27 +31308,28 @@
       <c r="P3" t="n">
         <v>460.2759243236306</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.69283012024246 -36.56150155037064, 174.7026473595283 -36.56400142454656)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.6928301202425</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.56150155037064</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.7026473595283</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.56400142454656</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.6977387398854</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.5627514874586</v>
       </c>
     </row>
@@ -31379,27 +31386,28 @@
       <c r="P4" t="n">
         <v>403.2040824074828</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.6925369563959 -36.56217955684994, 174.70235060198712 -36.56468870554778)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.6925369563959</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.56217955684994</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.7023506019871</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.56468870554778</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.6974437791915</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.56343413119886</v>
       </c>
     </row>
@@ -31456,27 +31464,28 @@
       <c r="P5" t="n">
         <v>381.2647144700466</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.69235296574726 -36.56267578469191, 174.7019516162302 -36.56567647941682)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.6923529657473</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.56267578469191</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.7019516162302</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.56567647941682</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.6971522909887</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.56417613205437</v>
       </c>
     </row>
@@ -31533,27 +31542,28 @@
       <c r="P6" t="n">
         <v>379.2337867420474</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.6921056563477 -36.563047881779276, 174.70132116587612 -36.566746707781476)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.6921056563477</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.56304788177928</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.7013211658761</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.56674670778148</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.6967134111119</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.56489729478038</v>
       </c>
     </row>
@@ -31610,27 +31620,28 @@
       <c r="P7" t="n">
         <v>382.0775946329801</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.6915552344035 -36.563915721329565, 174.70110041145315 -36.567025301534734)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.6915552344035</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.56391572132956</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.7011004114532</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.56702530153473</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.6963278229283</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.56547051143215</v>
       </c>
     </row>
@@ -31687,27 +31698,28 @@
       <c r="P8" t="n">
         <v>378.8938311359891</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.6911456345122 -36.56493259543049, 174.7010506964073 -36.56719734754784)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.6911456345122</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.56493259543049</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.7010506964073</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.56719734754784</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.6960981654597</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.56606497148917</v>
       </c>
     </row>
@@ -31764,27 +31776,28 @@
       <c r="P9" t="n">
         <v>379.0371954132576</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.69085855044025 -36.565766975561, 174.70087878983145 -36.567675129607984)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.6908585504403</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-36.565766975561</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.7008787898314</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-36.56767512960798</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.6958686701358</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-36.56672105258449</v>
       </c>
     </row>
@@ -31841,27 +31854,28 @@
       <c r="P10" t="n">
         <v>388.7579491999648</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.69058759461748 -36.566829489138364, 174.70081122060876 -36.56781483052222)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.6905875946175</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-36.56682948913836</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.7008112206088</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-36.56781483052222</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.6956994076131</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-36.56732215983029</v>
       </c>
     </row>
@@ -31918,27 +31932,28 @@
       <c r="P11" t="n">
         <v>388.3670983685917</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (174.6905189034452 -36.5678211818805, 174.7008091145461 -36.568113925691605)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>174.6905189034452</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-36.5678211818805</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>174.7008091145461</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-36.56811392569161</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>174.6956640089957</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-36.56796755378605</v>
       </c>
     </row>
@@ -31995,27 +32010,28 @@
       <c r="P12" t="n">
         <v>393.5803137901156</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (174.6904741649465 -36.56868344046451, 174.70077050139966 -36.568614409596115)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>174.6904741649465</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-36.56868344046451</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>174.7007705013997</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-36.56861440959612</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>174.6956223331731</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-36.56864892503032</v>
       </c>
     </row>
@@ -32072,27 +32088,28 @@
       <c r="P13" t="n">
         <v>389.8730173167098</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (174.69054788688584 -36.569822788481495, 174.70074638914477 -36.568679822132616)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>174.6905478868858</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-36.5698227884815</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>174.7007463891448</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-36.56867982213262</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>174.6956471380153</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-36.56925130530706</v>
       </c>
     </row>
@@ -32149,27 +32166,28 @@
       <c r="P14" t="n">
         <v>386.1465950939478</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (174.6907988384256 -36.570795772698744, 174.7008348462634 -36.568941036356215)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>174.6907988384256</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-36.57079577269874</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>174.7008348462634</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-36.56894103635621</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>174.6958168423445</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-36.56986840452748</v>
       </c>
     </row>

--- a/data/nzd0137/nzd0137.xlsx
+++ b/data/nzd0137/nzd0137.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O565"/>
+  <dimension ref="A1:O571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25130,9 +25130,7 @@
           <t>2025-01-30 22:06:08+00:00</t>
         </is>
       </c>
-      <c r="B563" t="n">
-        <v>448.04</v>
-      </c>
+      <c r="B563" t="inlineStr"/>
       <c r="C563" t="n">
         <v>442.47</v>
       </c>
@@ -25266,6 +25264,296 @@
         <v>387.6394117647058</v>
       </c>
       <c r="O565" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:55+00:00</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr"/>
+      <c r="C566" t="n">
+        <v>499.34</v>
+      </c>
+      <c r="D566" t="n">
+        <v>432</v>
+      </c>
+      <c r="E566" t="n">
+        <v>376.2966666666667</v>
+      </c>
+      <c r="F566" t="n">
+        <v>380.2866666666667</v>
+      </c>
+      <c r="G566" t="n">
+        <v>381.9966666666666</v>
+      </c>
+      <c r="H566" t="n">
+        <v>378.3766666666667</v>
+      </c>
+      <c r="I566" t="n">
+        <v>378.25</v>
+      </c>
+      <c r="J566" t="n">
+        <v>387.98</v>
+      </c>
+      <c r="K566" t="n">
+        <v>388.86</v>
+      </c>
+      <c r="L566" t="n">
+        <v>395.41</v>
+      </c>
+      <c r="M566" t="n">
+        <v>391.9484615384616</v>
+      </c>
+      <c r="N566" t="n">
+        <v>382.8494117647058</v>
+      </c>
+      <c r="O566" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr"/>
+      <c r="C567" t="n">
+        <v>429.26</v>
+      </c>
+      <c r="D567" t="n">
+        <v>423.4</v>
+      </c>
+      <c r="E567" t="n">
+        <v>371.0766666666667</v>
+      </c>
+      <c r="F567" t="n">
+        <v>371.1766666666667</v>
+      </c>
+      <c r="G567" t="n">
+        <v>381.0066666666667</v>
+      </c>
+      <c r="H567" t="n">
+        <v>375.6566666666667</v>
+      </c>
+      <c r="I567" t="n">
+        <v>376.3</v>
+      </c>
+      <c r="J567" t="n">
+        <v>384.27</v>
+      </c>
+      <c r="K567" t="n">
+        <v>386.8181818181818</v>
+      </c>
+      <c r="L567" t="inlineStr"/>
+      <c r="M567" t="inlineStr"/>
+      <c r="N567" t="inlineStr"/>
+      <c r="O567" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>450.92</v>
+      </c>
+      <c r="C568" t="n">
+        <v>442.77</v>
+      </c>
+      <c r="D568" t="n">
+        <v>389.65</v>
+      </c>
+      <c r="E568" t="n">
+        <v>383.3133333333333</v>
+      </c>
+      <c r="F568" t="n">
+        <v>379.8933333333333</v>
+      </c>
+      <c r="G568" t="n">
+        <v>394.6033333333333</v>
+      </c>
+      <c r="H568" t="n">
+        <v>392.0433333333333</v>
+      </c>
+      <c r="I568" t="n">
+        <v>384.81</v>
+      </c>
+      <c r="J568" t="n">
+        <v>394.13</v>
+      </c>
+      <c r="K568" t="n">
+        <v>390.3881818181818</v>
+      </c>
+      <c r="L568" t="n">
+        <v>402.32</v>
+      </c>
+      <c r="M568" t="n">
+        <v>394.6323076923077</v>
+      </c>
+      <c r="N568" t="n">
+        <v>398.1111764705882</v>
+      </c>
+      <c r="O568" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr"/>
+      <c r="C569" t="n">
+        <v>472.72</v>
+      </c>
+      <c r="D569" t="n">
+        <v>431.95</v>
+      </c>
+      <c r="E569" t="n">
+        <v>366.11</v>
+      </c>
+      <c r="F569" t="n">
+        <v>369.44</v>
+      </c>
+      <c r="G569" t="n">
+        <v>378.99</v>
+      </c>
+      <c r="H569" t="n">
+        <v>373.7</v>
+      </c>
+      <c r="I569" t="n">
+        <v>368.7</v>
+      </c>
+      <c r="J569" t="n">
+        <v>381.84</v>
+      </c>
+      <c r="K569" t="n">
+        <v>388.3527272727272</v>
+      </c>
+      <c r="L569" t="n">
+        <v>393.07</v>
+      </c>
+      <c r="M569" t="n">
+        <v>388.3384615384616</v>
+      </c>
+      <c r="N569" t="n">
+        <v>382.3805882352942</v>
+      </c>
+      <c r="O569" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>437.63</v>
+      </c>
+      <c r="C570" t="inlineStr"/>
+      <c r="D570" t="n">
+        <v>397.95</v>
+      </c>
+      <c r="E570" t="n">
+        <v>378.44</v>
+      </c>
+      <c r="F570" t="n">
+        <v>376.24</v>
+      </c>
+      <c r="G570" t="n">
+        <v>380.44</v>
+      </c>
+      <c r="H570" t="n">
+        <v>375.1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>377.5</v>
+      </c>
+      <c r="J570" t="n">
+        <v>379.82</v>
+      </c>
+      <c r="K570" t="n">
+        <v>384.9336363636364</v>
+      </c>
+      <c r="L570" t="n">
+        <v>389.78</v>
+      </c>
+      <c r="M570" t="n">
+        <v>391.6123076923077</v>
+      </c>
+      <c r="N570" t="n">
+        <v>386.0235294117647</v>
+      </c>
+      <c r="O570" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr"/>
+      <c r="C571" t="n">
+        <v>475.83</v>
+      </c>
+      <c r="D571" t="n">
+        <v>401.3</v>
+      </c>
+      <c r="E571" t="n">
+        <v>368.0366666666667</v>
+      </c>
+      <c r="F571" t="n">
+        <v>372.4466666666667</v>
+      </c>
+      <c r="G571" t="n">
+        <v>373.4966666666666</v>
+      </c>
+      <c r="H571" t="n">
+        <v>375.9866666666667</v>
+      </c>
+      <c r="I571" t="n">
+        <v>377.17</v>
+      </c>
+      <c r="J571" t="n">
+        <v>385.71</v>
+      </c>
+      <c r="K571" t="n">
+        <v>380.2954545454546</v>
+      </c>
+      <c r="L571" t="n">
+        <v>393.88</v>
+      </c>
+      <c r="M571" t="n">
+        <v>388.3569230769231</v>
+      </c>
+      <c r="N571" t="n">
+        <v>386.174705882353</v>
+      </c>
+      <c r="O571" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -25282,7 +25570,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B575"/>
+  <dimension ref="A1:B581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31040,6 +31328,66 @@
       </c>
       <c r="B575" t="n">
         <v>-0.38</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>-0.55</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>-0.67</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>-0.19</v>
       </c>
     </row>
   </sheetData>
@@ -31207,28 +31555,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.1012538678537405</v>
+        <v>-0.1125518160067139</v>
       </c>
       <c r="J2" t="n">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="K2" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0004214417466367193</v>
+        <v>0.0005234807640868144</v>
       </c>
       <c r="M2" t="n">
-        <v>28.24698375800103</v>
+        <v>28.21711595550494</v>
       </c>
       <c r="N2" t="n">
-        <v>1255.081222915609</v>
+        <v>1252.049275055661</v>
       </c>
       <c r="O2" t="n">
-        <v>35.42712552431553</v>
+        <v>35.38430831676184</v>
       </c>
       <c r="P2" t="n">
-        <v>460.7217417823723</v>
+        <v>460.8431048340183</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31285,28 +31633,28 @@
         <v>0.0103</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4333261989917548</v>
+        <v>-0.3925541679921302</v>
       </c>
       <c r="J3" t="n">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="K3" t="n">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0104338116796634</v>
+        <v>0.008691152294105886</v>
       </c>
       <c r="M3" t="n">
-        <v>24.06820987785645</v>
+        <v>24.09312524586544</v>
       </c>
       <c r="N3" t="n">
-        <v>836.3308807028228</v>
+        <v>836.3205139198373</v>
       </c>
       <c r="O3" t="n">
-        <v>28.91938589774725</v>
+        <v>28.91920666131485</v>
       </c>
       <c r="P3" t="n">
-        <v>460.2759243236306</v>
+        <v>459.8216604942338</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31363,28 +31711,28 @@
         <v>0.0215</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1527127210281904</v>
+        <v>-0.1075711810015256</v>
       </c>
       <c r="J4" t="n">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="K4" t="n">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004185591604295325</v>
+        <v>0.002091463439481522</v>
       </c>
       <c r="M4" t="n">
-        <v>13.45088011665548</v>
+        <v>13.51305392586649</v>
       </c>
       <c r="N4" t="n">
-        <v>281.5658153360612</v>
+        <v>284.7496802355447</v>
       </c>
       <c r="O4" t="n">
-        <v>16.7799229836153</v>
+        <v>16.87452755592122</v>
       </c>
       <c r="P4" t="n">
-        <v>403.2040824074828</v>
+        <v>402.7251502267675</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31441,28 +31789,28 @@
         <v>0.0316</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07886493661481889</v>
+        <v>-0.09363460001379469</v>
       </c>
       <c r="J5" t="n">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="K5" t="n">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001982941906978675</v>
+        <v>0.002856108731618456</v>
       </c>
       <c r="M5" t="n">
-        <v>9.777004301941764</v>
+        <v>9.729335353876424</v>
       </c>
       <c r="N5" t="n">
-        <v>160.4645994079168</v>
+        <v>159.0779171425646</v>
       </c>
       <c r="O5" t="n">
-        <v>12.66746223234618</v>
+        <v>12.61260945017187</v>
       </c>
       <c r="P5" t="n">
-        <v>381.2647144700466</v>
+        <v>381.4198490882519</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31519,28 +31867,28 @@
         <v>0.0308</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1159970172002926</v>
+        <v>-0.1196719600798712</v>
       </c>
       <c r="J6" t="n">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="K6" t="n">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005740765879816201</v>
+        <v>0.006267612347364948</v>
       </c>
       <c r="M6" t="n">
-        <v>8.232768180871496</v>
+        <v>8.17516712350767</v>
       </c>
       <c r="N6" t="n">
-        <v>118.6765373528352</v>
+        <v>117.2896050769404</v>
       </c>
       <c r="O6" t="n">
-        <v>10.89387613996208</v>
+        <v>10.83003255197972</v>
       </c>
       <c r="P6" t="n">
-        <v>379.2337867420474</v>
+        <v>379.2723697669285</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31597,28 +31945,28 @@
         <v>0.0318</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.06859169668828423</v>
+        <v>-0.06473188751937467</v>
       </c>
       <c r="J7" t="n">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="K7" t="n">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002031519181965868</v>
+        <v>0.001852364342859292</v>
       </c>
       <c r="M7" t="n">
-        <v>8.218198936384661</v>
+        <v>8.1627639183639</v>
       </c>
       <c r="N7" t="n">
-        <v>115.9659311029802</v>
+        <v>114.9756214412982</v>
       </c>
       <c r="O7" t="n">
-        <v>10.768747889285</v>
+        <v>10.72266857835764</v>
       </c>
       <c r="P7" t="n">
-        <v>382.0775946329801</v>
+        <v>382.0372714193143</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31675,28 +32023,28 @@
         <v>0.0313</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.01277257789111082</v>
+        <v>-0.01302323716243877</v>
       </c>
       <c r="J8" t="n">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="K8" t="n">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="L8" t="n">
-        <v>9.261729581910849e-05</v>
+        <v>9.839024906510563e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>7.031012532458123</v>
+        <v>6.997562528562221</v>
       </c>
       <c r="N8" t="n">
-        <v>88.70912757680514</v>
+        <v>88.0324176991585</v>
       </c>
       <c r="O8" t="n">
-        <v>9.418552307908319</v>
+        <v>9.382559229717577</v>
       </c>
       <c r="P8" t="n">
-        <v>378.8938311359891</v>
+        <v>378.8965447362168</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31753,28 +32101,28 @@
         <v>0.0406</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04553973407442306</v>
+        <v>0.03730122780367278</v>
       </c>
       <c r="J9" t="n">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="K9" t="n">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001175520421818566</v>
+        <v>0.0008073437134594741</v>
       </c>
       <c r="M9" t="n">
-        <v>7.087690234729067</v>
+        <v>7.051599618672405</v>
       </c>
       <c r="N9" t="n">
-        <v>88.42618764309996</v>
+        <v>87.65916328412204</v>
       </c>
       <c r="O9" t="n">
-        <v>9.403519960264878</v>
+        <v>9.362647236979617</v>
       </c>
       <c r="P9" t="n">
-        <v>379.0371954132576</v>
+        <v>379.1238715976303</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31831,28 +32179,28 @@
         <v>0.044</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.0308339039012756</v>
+        <v>-0.03703637304985846</v>
       </c>
       <c r="J10" t="n">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="K10" t="n">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0004840916827381081</v>
+        <v>0.0007152888533515922</v>
       </c>
       <c r="M10" t="n">
-        <v>7.628939417736335</v>
+        <v>7.582814508845128</v>
       </c>
       <c r="N10" t="n">
-        <v>98.07263270622369</v>
+        <v>97.13357672762608</v>
       </c>
       <c r="O10" t="n">
-        <v>9.903162762785618</v>
+        <v>9.85563679970128</v>
       </c>
       <c r="P10" t="n">
-        <v>388.7579491999648</v>
+        <v>388.8232226605238</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31909,28 +32257,28 @@
         <v>0.0563</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01729118750304768</v>
+        <v>0.01154364611540197</v>
       </c>
       <c r="J11" t="n">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="K11" t="n">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0002431677519512121</v>
+        <v>0.0001109776386705175</v>
       </c>
       <c r="M11" t="n">
-        <v>6.111335463583444</v>
+        <v>6.063457588424317</v>
       </c>
       <c r="N11" t="n">
-        <v>62.77331963558169</v>
+        <v>62.14319584442751</v>
       </c>
       <c r="O11" t="n">
-        <v>7.922961544497215</v>
+        <v>7.883095574990038</v>
       </c>
       <c r="P11" t="n">
-        <v>388.3670983685917</v>
+        <v>388.427345764315</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31987,28 +32335,28 @@
         <v>0.0514</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0651189140195384</v>
+        <v>0.06431616812687699</v>
       </c>
       <c r="J12" t="n">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="K12" t="n">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002882041856477113</v>
+        <v>0.002869148020870127</v>
       </c>
       <c r="M12" t="n">
-        <v>6.231977827944357</v>
+        <v>6.198363313689641</v>
       </c>
       <c r="N12" t="n">
-        <v>75.7791617331787</v>
+        <v>75.12815669804915</v>
       </c>
       <c r="O12" t="n">
-        <v>8.705122729357623</v>
+        <v>8.667650010126687</v>
       </c>
       <c r="P12" t="n">
-        <v>393.5803137901156</v>
+        <v>393.5886884408669</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -32065,28 +32413,28 @@
         <v>0.0709</v>
       </c>
       <c r="I13" t="n">
-        <v>0.07471617615001899</v>
+        <v>0.07284108168294995</v>
       </c>
       <c r="J13" t="n">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="K13" t="n">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="L13" t="n">
-        <v>0.004046096498759311</v>
+        <v>0.003935158371738301</v>
       </c>
       <c r="M13" t="n">
-        <v>6.047265785815418</v>
+        <v>5.99908348714873</v>
       </c>
       <c r="N13" t="n">
-        <v>70.20944914322729</v>
+        <v>69.47038285439237</v>
       </c>
       <c r="O13" t="n">
-        <v>8.379107896621649</v>
+        <v>8.334889492632303</v>
       </c>
       <c r="P13" t="n">
-        <v>389.8730173167098</v>
+        <v>389.8925666165534</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -32143,28 +32491,28 @@
         <v>0.09039999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>0.05856855427684775</v>
+        <v>0.05733135630586556</v>
       </c>
       <c r="J14" t="n">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="K14" t="n">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="L14" t="n">
-        <v>0.002698100006059745</v>
+        <v>0.002632430655460816</v>
       </c>
       <c r="M14" t="n">
-        <v>6.378800771310944</v>
+        <v>6.359650350010771</v>
       </c>
       <c r="N14" t="n">
-        <v>64.85933043635468</v>
+        <v>64.49061967798163</v>
       </c>
       <c r="O14" t="n">
-        <v>8.053529067207412</v>
+        <v>8.030605187529869</v>
       </c>
       <c r="P14" t="n">
-        <v>386.1465950939478</v>
+        <v>386.1594326472982</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -32202,7 +32550,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O565"/>
+  <dimension ref="A1:O571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67490,11 +67838,7 @@
           <t>2025-01-30 22:06:08+00:00</t>
         </is>
       </c>
-      <c r="B563" t="inlineStr">
-        <is>
-          <t>-36.562024313391845,174.69787101432502</t>
-        </is>
-      </c>
+      <c r="B563" t="inlineStr"/>
       <c r="C563" t="inlineStr">
         <is>
           <t>-36.562702046341656,174.69754409967288</t>
@@ -67698,6 +68042,436 @@
         </is>
       </c>
       <c r="O565" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:55+00:00</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr"/>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>-36.56285633045712,174.6981499904198</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>-36.563356000997594,174.69713772301824</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>-36.563901351336426,174.6962729264668</t>
+        </is>
+      </c>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>-36.56457473585734,174.69590943889844</t>
+        </is>
+      </c>
+      <c r="G566" t="inlineStr">
+        <is>
+          <t>-36.565205018942216,174.69551248374208</t>
+        </is>
+      </c>
+      <c r="H566" t="inlineStr">
+        <is>
+          <t>-36.56586265244104,174.69521279755259</t>
+        </is>
+      </c>
+      <c r="I566" t="inlineStr">
+        <is>
+          <t>-36.56655032188416,174.69497151676137</t>
+        </is>
+      </c>
+      <c r="J566" t="inlineStr">
+        <is>
+          <t>-36.56724443171158,174.69489177695436</t>
+        </is>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>-36.567944814828145,174.6948608905521</t>
+        </is>
+      </c>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>-36.56865393090276,174.69489193209677</t>
+        </is>
+      </c>
+      <c r="M566" t="inlineStr">
+        <is>
+          <t>-36.5693367702482,174.69488553281576</t>
+        </is>
+      </c>
+      <c r="N566" t="inlineStr">
+        <is>
+          <t>-36.570025297187236,174.69496850344683</t>
+        </is>
+      </c>
+      <c r="O566" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr"/>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>-36.56266620813553,174.69740336118082</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>-36.56333258281511,174.69704613238304</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>-36.56388435114043,174.69621854782238</t>
+        </is>
+      </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>-36.56453816060216,174.69581831524917</t>
+        </is>
+      </c>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t>-36.565201677714285,174.69550222778963</t>
+        </is>
+      </c>
+      <c r="H567" t="inlineStr">
+        <is>
+          <t>-36.56585596713445,174.69518355999827</t>
+        </is>
+      </c>
+      <c r="I567" t="inlineStr">
+        <is>
+          <t>-36.566546283852595,174.69495031290214</t>
+        </is>
+      </c>
+      <c r="J567" t="inlineStr">
+        <is>
+          <t>-36.56724046462811,174.69485061867329</t>
+        </is>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>-36.56794416607293,174.69483809171476</t>
+        </is>
+      </c>
+      <c r="L567" t="inlineStr"/>
+      <c r="M567" t="inlineStr"/>
+      <c r="N567" t="inlineStr"/>
+      <c r="O567" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>-36.56203171491183,174.6979018538895</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>-36.56270286022778,174.6975472958551</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>-36.563240679369066,174.69668669290036</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>-36.563924202773016,174.69634602167955</t>
+        </is>
+      </c>
+      <c r="F568" t="inlineStr">
+        <is>
+          <t>-36.56457315668572,174.69590550454228</t>
+        </is>
+      </c>
+      <c r="G568" t="inlineStr">
+        <is>
+          <t>-36.56524756608194,174.6956430831845</t>
+        </is>
+      </c>
+      <c r="H568" t="inlineStr">
+        <is>
+          <t>-36.56589624271887,174.69535970200323</t>
+        </is>
+      </c>
+      <c r="I568" t="inlineStr">
+        <is>
+          <t>-36.56656390620835,174.69504284873378</t>
+        </is>
+      </c>
+      <c r="J568" t="inlineStr">
+        <is>
+          <t>-36.56725100784267,174.6949600043017</t>
+        </is>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>-36.56794530038072,174.69487795415222</t>
+        </is>
+      </c>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>-36.56865341375205,174.69496913483883</t>
+        </is>
+      </c>
+      <c r="M568" t="inlineStr">
+        <is>
+          <t>-36.5693334417247,174.6949152344058</t>
+        </is>
+      </c>
+      <c r="N568" t="inlineStr">
+        <is>
+          <t>-36.56999458025998,174.69513471957026</t>
+        </is>
+      </c>
+      <c r="O568" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr"/>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>-36.562784112752325,174.69786638169873</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>-36.563355864845576,174.69713719051438</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>-36.563868175962206,174.69616680826508</t>
+        </is>
+      </c>
+      <c r="F569" t="inlineStr">
+        <is>
+          <t>-36.56453118814322,174.6958009440837</t>
+        </is>
+      </c>
+      <c r="G569" t="inlineStr">
+        <is>
+          <t>-36.565194871506414,174.69548133603726</t>
+        </is>
+      </c>
+      <c r="H569" t="inlineStr">
+        <is>
+          <t>-36.56585115796943,174.6951625275939</t>
+        </is>
+      </c>
+      <c r="I569" t="inlineStr">
+        <is>
+          <t>-36.566530545846845,174.6948676722397</t>
+        </is>
+      </c>
+      <c r="J569" t="inlineStr">
+        <is>
+          <t>-36.56723786623413,174.69482366055584</t>
+        </is>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>-36.567944653650706,174.69485522637075</t>
+        </is>
+      </c>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>-36.56865410601917,174.69486578818632</t>
+        </is>
+      </c>
+      <c r="M569" t="inlineStr">
+        <is>
+          <t>-36.56934124738216,174.69484558166133</t>
+        </is>
+      </c>
+      <c r="N569" t="inlineStr">
+        <is>
+          <t>-36.57002624077164,174.69496339748002</t>
+        </is>
+      </c>
+      <c r="O569" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>-36.561997559913145,174.69775954219583</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr"/>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>-36.56326328091184,174.69677508831253</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>-36.56390833161387,174.69629525435874</t>
+        </is>
+      </c>
+      <c r="F570" t="inlineStr">
+        <is>
+          <t>-36.56455848911916,174.6958689617164</t>
+        </is>
+      </c>
+      <c r="G570" t="inlineStr">
+        <is>
+          <t>-36.5651997652265,174.6954963573795</t>
+        </is>
+      </c>
+      <c r="H570" t="inlineStr">
+        <is>
+          <t>-36.56585459893967,174.69517757633272</t>
+        </is>
+      </c>
+      <c r="I570" t="inlineStr">
+        <is>
+          <t>-36.56654876879555,174.69496336143067</t>
+        </is>
+      </c>
+      <c r="J570" t="inlineStr">
+        <is>
+          <t>-36.567235706247615,174.69480125092858</t>
+        </is>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>-36.56794356728474,174.6948170489768</t>
+        </is>
+      </c>
+      <c r="L570" t="inlineStr">
+        <is>
+          <t>-36.56865435222014,174.69482903029453</t>
+        </is>
+      </c>
+      <c r="M570" t="inlineStr">
+        <is>
+          <t>-36.56933718714787,174.694881812668</t>
+        </is>
+      </c>
+      <c r="N570" t="inlineStr">
+        <is>
+          <t>-36.570018908748196,174.69500307282442</t>
+        </is>
+      </c>
+      <c r="O570" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr"/>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>-36.56279254994274,174.69789951552406</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>-36.56327240320229,174.69681076599286</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>-36.563874450631396,174.6961868790439</t>
+        </is>
+      </c>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>-36.564543259462035,174.695831018541</t>
+        </is>
+      </c>
+      <c r="G571" t="inlineStr">
+        <is>
+          <t>-36.56517633160208,174.6954244276124</t>
+        </is>
+      </c>
+      <c r="H571" t="inlineStr">
+        <is>
+          <t>-36.565856778219825,174.69518710720132</t>
+        </is>
+      </c>
+      <c r="I571" t="inlineStr">
+        <is>
+          <t>-36.566548085436374,174.69495977308523</t>
+        </is>
+      </c>
+      <c r="J571" t="inlineStr">
+        <is>
+          <t>-36.567242004414226,174.69486659385473</t>
+        </is>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>-36.56794209355091,174.69476525927715</t>
+        </is>
+      </c>
+      <c r="L571" t="inlineStr">
+        <is>
+          <t>-36.568654045402596,174.69487483800148</t>
+        </is>
+      </c>
+      <c r="M571" t="inlineStr">
+        <is>
+          <t>-36.569341224486124,174.69484578597152</t>
+        </is>
+      </c>
+      <c r="N571" t="inlineStr">
+        <is>
+          <t>-36.570018604480204,174.69500471929018</t>
+        </is>
+      </c>
+      <c r="O571" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0137/nzd0137.xlsx
+++ b/data/nzd0137/nzd0137.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O571"/>
+  <dimension ref="A1:O572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25516,7 +25516,9 @@
           <t>2025-04-11 22:11:41+00:00</t>
         </is>
       </c>
-      <c r="B571" t="inlineStr"/>
+      <c r="B571" t="n">
+        <v>498.31</v>
+      </c>
       <c r="C571" t="n">
         <v>475.83</v>
       </c>
@@ -25556,6 +25558,53 @@
       <c r="O571" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>515.75</v>
+      </c>
+      <c r="C572" t="inlineStr"/>
+      <c r="D572" t="inlineStr"/>
+      <c r="E572" t="n">
+        <v>381.04</v>
+      </c>
+      <c r="F572" t="n">
+        <v>384.8</v>
+      </c>
+      <c r="G572" t="n">
+        <v>386.98</v>
+      </c>
+      <c r="H572" t="n">
+        <v>382.7</v>
+      </c>
+      <c r="I572" t="n">
+        <v>383.85</v>
+      </c>
+      <c r="J572" t="n">
+        <v>388.73</v>
+      </c>
+      <c r="K572" t="n">
+        <v>391.6727272727272</v>
+      </c>
+      <c r="L572" t="n">
+        <v>397.23</v>
+      </c>
+      <c r="M572" t="n">
+        <v>391.4053846153847</v>
+      </c>
+      <c r="N572" t="n">
+        <v>397.1529411764706</v>
+      </c>
+      <c r="O572" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -25570,7 +25619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B581"/>
+  <dimension ref="A1:B582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31388,6 +31437,16 @@
       </c>
       <c r="B581" t="n">
         <v>-0.19</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>-0.48</v>
       </c>
     </row>
   </sheetData>
@@ -31555,28 +31614,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.1125518160067139</v>
+        <v>-0.05086044720941641</v>
       </c>
       <c r="J2" t="n">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="K2" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0005234807640868144</v>
+        <v>0.0001068381482537406</v>
       </c>
       <c r="M2" t="n">
-        <v>28.21711595550494</v>
+        <v>28.32096352647831</v>
       </c>
       <c r="N2" t="n">
-        <v>1252.049275055661</v>
+        <v>1260.103665458272</v>
       </c>
       <c r="O2" t="n">
-        <v>35.38430831676184</v>
+        <v>35.49793889028309</v>
       </c>
       <c r="P2" t="n">
-        <v>460.8431048340183</v>
+        <v>460.1812451720205</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31636,7 +31695,7 @@
         <v>-0.3925541679921302</v>
       </c>
       <c r="J3" t="n">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="K3" t="n">
         <v>364</v>
@@ -31714,7 +31773,7 @@
         <v>-0.1075711810015256</v>
       </c>
       <c r="J4" t="n">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="K4" t="n">
         <v>337</v>
@@ -31789,28 +31848,28 @@
         <v>0.0316</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.09363460001379469</v>
+        <v>-0.09269611700127546</v>
       </c>
       <c r="J5" t="n">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="K5" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002856108731618456</v>
+        <v>0.002812167326914472</v>
       </c>
       <c r="M5" t="n">
-        <v>9.729335353876424</v>
+        <v>9.711135157114274</v>
       </c>
       <c r="N5" t="n">
-        <v>159.0779171425646</v>
+        <v>158.7080782026954</v>
       </c>
       <c r="O5" t="n">
-        <v>12.61260945017187</v>
+        <v>12.59793944273012</v>
       </c>
       <c r="P5" t="n">
-        <v>381.4198490882519</v>
+        <v>381.4099382468737</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31867,28 +31926,28 @@
         <v>0.0308</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1196719600798712</v>
+        <v>-0.115740975535453</v>
       </c>
       <c r="J6" t="n">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="K6" t="n">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006267612347364948</v>
+        <v>0.005883724979529381</v>
       </c>
       <c r="M6" t="n">
-        <v>8.17516712350767</v>
+        <v>8.172942863657957</v>
       </c>
       <c r="N6" t="n">
-        <v>117.2896050769404</v>
+        <v>117.1884726457744</v>
       </c>
       <c r="O6" t="n">
-        <v>10.83003255197972</v>
+        <v>10.82536247179624</v>
       </c>
       <c r="P6" t="n">
-        <v>379.2723697669285</v>
+        <v>379.2309703247839</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31945,28 +32004,28 @@
         <v>0.0318</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.06473188751937467</v>
+        <v>-0.06173971160462117</v>
       </c>
       <c r="J7" t="n">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="K7" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001852364342859292</v>
+        <v>0.001691819917354009</v>
       </c>
       <c r="M7" t="n">
-        <v>8.1627639183639</v>
+        <v>8.158702974188072</v>
       </c>
       <c r="N7" t="n">
-        <v>114.9756214412982</v>
+        <v>114.8151970492596</v>
       </c>
       <c r="O7" t="n">
-        <v>10.72266857835764</v>
+        <v>10.71518534833904</v>
       </c>
       <c r="P7" t="n">
-        <v>382.0372714193143</v>
+        <v>382.0057276416612</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32023,28 +32082,28 @@
         <v>0.0313</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.01302323716243877</v>
+        <v>-0.01117301510785504</v>
       </c>
       <c r="J8" t="n">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="K8" t="n">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L8" t="n">
-        <v>9.839024906510563e-05</v>
+        <v>7.272063875174428e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>6.997562528562221</v>
+        <v>6.993138080057872</v>
       </c>
       <c r="N8" t="n">
-        <v>88.0324176991585</v>
+        <v>87.87247655891225</v>
       </c>
       <c r="O8" t="n">
-        <v>9.382559229717577</v>
+        <v>9.374032033170799</v>
       </c>
       <c r="P8" t="n">
-        <v>378.8965447362168</v>
+        <v>378.8769314352036</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32101,28 +32160,28 @@
         <v>0.0406</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03730122780367278</v>
+        <v>0.03898352445180056</v>
       </c>
       <c r="J9" t="n">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="K9" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0008073437134594741</v>
+        <v>0.0008854859886959776</v>
       </c>
       <c r="M9" t="n">
-        <v>7.051599618672405</v>
+        <v>7.044795971546968</v>
       </c>
       <c r="N9" t="n">
-        <v>87.65916328412204</v>
+        <v>87.49526719763155</v>
       </c>
       <c r="O9" t="n">
-        <v>9.362647236979617</v>
+        <v>9.353890484586163</v>
       </c>
       <c r="P9" t="n">
-        <v>379.1238715976303</v>
+        <v>379.106080200945</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32179,28 +32238,28 @@
         <v>0.044</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.03703637304985846</v>
+        <v>-0.03665484352753919</v>
       </c>
       <c r="J10" t="n">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="K10" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0007152888533515922</v>
+        <v>0.0007038377218715475</v>
       </c>
       <c r="M10" t="n">
-        <v>7.582814508845128</v>
+        <v>7.568345834206978</v>
       </c>
       <c r="N10" t="n">
-        <v>97.13357672762608</v>
+        <v>96.92310712563221</v>
       </c>
       <c r="O10" t="n">
-        <v>9.85563679970128</v>
+        <v>9.844953383619051</v>
       </c>
       <c r="P10" t="n">
-        <v>388.8232226605238</v>
+        <v>388.8191908057763</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32257,28 +32316,28 @@
         <v>0.0563</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01154364611540197</v>
+        <v>0.01282659657951899</v>
       </c>
       <c r="J11" t="n">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="K11" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0001109776386705175</v>
+        <v>0.0001375815737212349</v>
       </c>
       <c r="M11" t="n">
-        <v>6.063457588424317</v>
+        <v>6.057174135698901</v>
       </c>
       <c r="N11" t="n">
-        <v>62.14319584442751</v>
+        <v>62.02454218210723</v>
       </c>
       <c r="O11" t="n">
-        <v>7.883095574990038</v>
+        <v>7.87556614994168</v>
       </c>
       <c r="P11" t="n">
-        <v>388.427345764315</v>
+        <v>388.4138473593094</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32335,28 +32394,28 @@
         <v>0.0514</v>
       </c>
       <c r="I12" t="n">
-        <v>0.06431616812687699</v>
+        <v>0.06518556865045312</v>
       </c>
       <c r="J12" t="n">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="K12" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002869148020870127</v>
+        <v>0.002960085445152916</v>
       </c>
       <c r="M12" t="n">
-        <v>6.198363313689641</v>
+        <v>6.189439775041399</v>
       </c>
       <c r="N12" t="n">
-        <v>75.12815669804915</v>
+        <v>74.96987615161537</v>
       </c>
       <c r="O12" t="n">
-        <v>8.667650010126687</v>
+        <v>8.658514661973806</v>
       </c>
       <c r="P12" t="n">
-        <v>393.5886884408669</v>
+        <v>393.5796526111901</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -32413,28 +32472,28 @@
         <v>0.0709</v>
       </c>
       <c r="I13" t="n">
-        <v>0.07284108168294995</v>
+        <v>0.07267262241627513</v>
       </c>
       <c r="J13" t="n">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="K13" t="n">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003935158371738301</v>
+        <v>0.00393568228499197</v>
       </c>
       <c r="M13" t="n">
-        <v>5.99908348714873</v>
+        <v>5.985932838485256</v>
       </c>
       <c r="N13" t="n">
-        <v>69.47038285439237</v>
+        <v>69.31025101408856</v>
       </c>
       <c r="O13" t="n">
-        <v>8.334889492632303</v>
+        <v>8.325277834047856</v>
       </c>
       <c r="P13" t="n">
-        <v>389.8925666165534</v>
+        <v>389.8943274051003</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -32491,28 +32550,28 @@
         <v>0.09039999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>0.05733135630586556</v>
+        <v>0.06169946525922277</v>
       </c>
       <c r="J14" t="n">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="K14" t="n">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L14" t="n">
-        <v>0.002632430655460816</v>
+        <v>0.003052255208811361</v>
       </c>
       <c r="M14" t="n">
-        <v>6.359650350010771</v>
+        <v>6.367224263128989</v>
       </c>
       <c r="N14" t="n">
-        <v>64.49061967798163</v>
+        <v>64.54927049262913</v>
       </c>
       <c r="O14" t="n">
-        <v>8.030605187529869</v>
+        <v>8.034256063421749</v>
       </c>
       <c r="P14" t="n">
-        <v>386.1594326472982</v>
+        <v>386.1137925529871</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -32550,7 +32609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O571"/>
+  <dimension ref="A1:O572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68410,7 +68469,11 @@
           <t>2025-04-11 22:11:41+00:00</t>
         </is>
       </c>
-      <c r="B571" t="inlineStr"/>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>-36.56215350472577,174.69840931544388</t>
+        </is>
+      </c>
       <c r="C571" t="inlineStr">
         <is>
           <t>-36.56279254994274,174.69789951552406</t>
@@ -68474,6 +68537,75 @@
       <c r="O571" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>-36.56219832405586,174.6985960668172</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr"/>
+      <c r="D572" t="inlineStr"/>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>-36.56391679912972,174.69632233952055</t>
+        </is>
+      </c>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>-36.56459285617292,174.6959545839793</t>
+        </is>
+      </c>
+      <c r="G572" t="inlineStr">
+        <is>
+          <t>-36.56522183756739,174.6955641088356</t>
+        </is>
+      </c>
+      <c r="H572" t="inlineStr">
+        <is>
+          <t>-36.56587327845866,174.69525926950843</t>
+        </is>
+      </c>
+      <c r="I572" t="inlineStr">
+        <is>
+          <t>-36.566561918261186,174.6950324099071</t>
+        </is>
+      </c>
+      <c r="J572" t="inlineStr">
+        <is>
+          <t>-36.56724523368089,174.69490009736202</t>
+        </is>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>-36.567945708520284,174.69489229732125</t>
+        </is>
+      </c>
+      <c r="L572" t="inlineStr">
+        <is>
+          <t>-36.56865379469715,174.6949122662491</t>
+        </is>
+      </c>
+      <c r="M572" t="inlineStr">
+        <is>
+          <t>-36.56933744377484,174.69487952269142</t>
+        </is>
+      </c>
+      <c r="N572" t="inlineStr">
+        <is>
+          <t>-36.5699965088801,174.69512428341847</t>
+        </is>
+      </c>
+      <c r="O572" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0137/nzd0137.xlsx
+++ b/data/nzd0137/nzd0137.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O572"/>
+  <dimension ref="A1:O573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25516,9 +25516,7 @@
           <t>2025-04-11 22:11:41+00:00</t>
         </is>
       </c>
-      <c r="B571" t="n">
-        <v>498.31</v>
-      </c>
+      <c r="B571" t="inlineStr"/>
       <c r="C571" t="n">
         <v>475.83</v>
       </c>
@@ -25567,9 +25565,7 @@
           <t>2025-05-05 22:11:12+00:00</t>
         </is>
       </c>
-      <c r="B572" t="n">
-        <v>515.75</v>
-      </c>
+      <c r="B572" t="inlineStr"/>
       <c r="C572" t="inlineStr"/>
       <c r="D572" t="inlineStr"/>
       <c r="E572" t="n">
@@ -25603,6 +25599,57 @@
         <v>397.1529411764706</v>
       </c>
       <c r="O572" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>453.9</v>
+      </c>
+      <c r="C573" t="n">
+        <v>451.29</v>
+      </c>
+      <c r="D573" t="n">
+        <v>396.21</v>
+      </c>
+      <c r="E573" t="n">
+        <v>370.5233333333333</v>
+      </c>
+      <c r="F573" t="n">
+        <v>372.1933333333333</v>
+      </c>
+      <c r="G573" t="n">
+        <v>374.6933333333333</v>
+      </c>
+      <c r="H573" t="n">
+        <v>378.4333333333333</v>
+      </c>
+      <c r="I573" t="n">
+        <v>388.23</v>
+      </c>
+      <c r="J573" t="n">
+        <v>398.46</v>
+      </c>
+      <c r="K573" t="n">
+        <v>391.7572727272727</v>
+      </c>
+      <c r="L573" t="n">
+        <v>401.21</v>
+      </c>
+      <c r="M573" t="n">
+        <v>405.7161538461539</v>
+      </c>
+      <c r="N573" t="n">
+        <v>404.7276470588236</v>
+      </c>
+      <c r="O573" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -25619,7 +25666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B582"/>
+  <dimension ref="A1:B583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31447,6 +31494,16 @@
       </c>
       <c r="B582" t="n">
         <v>-0.48</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>1.03</v>
       </c>
     </row>
   </sheetData>
@@ -31614,28 +31671,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.05086044720941641</v>
+        <v>-0.115134243290931</v>
       </c>
       <c r="J2" t="n">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="K2" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001068381482537406</v>
+        <v>0.0005512024974652086</v>
       </c>
       <c r="M2" t="n">
-        <v>28.32096352647831</v>
+        <v>28.13619701174884</v>
       </c>
       <c r="N2" t="n">
-        <v>1260.103665458272</v>
+        <v>1247.845357624213</v>
       </c>
       <c r="O2" t="n">
-        <v>35.49793889028309</v>
+        <v>35.32485467237215</v>
       </c>
       <c r="P2" t="n">
-        <v>460.1812451720205</v>
+        <v>460.8709443165422</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31692,28 +31749,28 @@
         <v>0.0103</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3925541679921302</v>
+        <v>-0.3916501156997974</v>
       </c>
       <c r="J3" t="n">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="K3" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L3" t="n">
-        <v>0.008691152294105886</v>
+        <v>0.008698180774138087</v>
       </c>
       <c r="M3" t="n">
-        <v>24.09312524586544</v>
+        <v>24.03173132418305</v>
       </c>
       <c r="N3" t="n">
-        <v>836.3205139198373</v>
+        <v>834.036379516697</v>
       </c>
       <c r="O3" t="n">
-        <v>28.91920666131485</v>
+        <v>28.87968800933793</v>
       </c>
       <c r="P3" t="n">
-        <v>459.8216604942338</v>
+        <v>459.8114922137138</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31770,28 +31827,28 @@
         <v>0.0215</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1075711810015256</v>
+        <v>-0.1096923204614294</v>
       </c>
       <c r="J4" t="n">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="K4" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002091463439481522</v>
+        <v>0.002186616814059406</v>
       </c>
       <c r="M4" t="n">
-        <v>13.51305392586649</v>
+        <v>13.48413684353686</v>
       </c>
       <c r="N4" t="n">
-        <v>284.7496802355447</v>
+        <v>283.9480903999159</v>
       </c>
       <c r="O4" t="n">
-        <v>16.87452755592122</v>
+        <v>16.85075934193815</v>
       </c>
       <c r="P4" t="n">
-        <v>402.7251502267675</v>
+        <v>402.7479054884073</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31848,28 +31905,28 @@
         <v>0.0316</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.09269611700127546</v>
+        <v>-0.09660825101514968</v>
       </c>
       <c r="J5" t="n">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="K5" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002812167326914472</v>
+        <v>0.003064795982792412</v>
       </c>
       <c r="M5" t="n">
-        <v>9.711135157114274</v>
+        <v>9.707590098337414</v>
       </c>
       <c r="N5" t="n">
-        <v>158.7080782026954</v>
+        <v>158.5005656551164</v>
       </c>
       <c r="O5" t="n">
-        <v>12.59793944273012</v>
+        <v>12.58970077702867</v>
       </c>
       <c r="P5" t="n">
-        <v>381.4099382468737</v>
+        <v>381.451389161268</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31926,28 +31983,28 @@
         <v>0.0308</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.115740975535453</v>
+        <v>-0.1175855489394903</v>
       </c>
       <c r="J6" t="n">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="K6" t="n">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005883724979529381</v>
+        <v>0.00609801196363724</v>
       </c>
       <c r="M6" t="n">
-        <v>8.172942863657957</v>
+        <v>8.164799663699968</v>
       </c>
       <c r="N6" t="n">
-        <v>117.1884726457744</v>
+        <v>116.9547903047552</v>
       </c>
       <c r="O6" t="n">
-        <v>10.82536247179624</v>
+        <v>10.81456380557049</v>
       </c>
       <c r="P6" t="n">
-        <v>379.2309703247839</v>
+        <v>379.2504592078149</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32004,28 +32061,28 @@
         <v>0.0318</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.06173971160462117</v>
+        <v>-0.06432501325125678</v>
       </c>
       <c r="J7" t="n">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="K7" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001691819917354009</v>
+        <v>0.0018436801382401</v>
       </c>
       <c r="M7" t="n">
-        <v>8.158702974188072</v>
+        <v>8.153653597105556</v>
       </c>
       <c r="N7" t="n">
-        <v>114.8151970492596</v>
+        <v>114.630911104515</v>
       </c>
       <c r="O7" t="n">
-        <v>10.71518534833904</v>
+        <v>10.7065826062528</v>
       </c>
       <c r="P7" t="n">
-        <v>382.0057276416612</v>
+        <v>382.0330666712809</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32082,28 +32139,28 @@
         <v>0.0313</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.01117301510785504</v>
+        <v>-0.01124210180258288</v>
       </c>
       <c r="J8" t="n">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="K8" t="n">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L8" t="n">
-        <v>7.272063875174428e-05</v>
+        <v>7.396067469289669e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>6.993138080057872</v>
+        <v>6.977691173060466</v>
       </c>
       <c r="N8" t="n">
-        <v>87.87247655891225</v>
+        <v>87.67506365276162</v>
       </c>
       <c r="O8" t="n">
-        <v>9.374032033170799</v>
+        <v>9.363496336986607</v>
       </c>
       <c r="P8" t="n">
-        <v>378.8769314352036</v>
+        <v>378.8776661192155</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32160,28 +32217,28 @@
         <v>0.0406</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03898352445180056</v>
+        <v>0.04261024423759784</v>
       </c>
       <c r="J9" t="n">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="K9" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0008854859886959776</v>
+        <v>0.001060850338219455</v>
       </c>
       <c r="M9" t="n">
-        <v>7.044795971546968</v>
+        <v>7.048207798354408</v>
       </c>
       <c r="N9" t="n">
-        <v>87.49526719763155</v>
+        <v>87.44619469579888</v>
       </c>
       <c r="O9" t="n">
-        <v>9.353890484586163</v>
+        <v>9.351267010186314</v>
       </c>
       <c r="P9" t="n">
-        <v>379.106080200945</v>
+        <v>379.0676052590906</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32238,28 +32295,28 @@
         <v>0.044</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.03665484352753919</v>
+        <v>-0.03197024275470516</v>
       </c>
       <c r="J10" t="n">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="K10" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0007038377218715475</v>
+        <v>0.0005366389232637214</v>
       </c>
       <c r="M10" t="n">
-        <v>7.568345834206978</v>
+        <v>7.577377370853724</v>
       </c>
       <c r="N10" t="n">
-        <v>96.92310712563221</v>
+        <v>96.95457948270979</v>
       </c>
       <c r="O10" t="n">
-        <v>9.844953383619051</v>
+        <v>9.846551654397075</v>
       </c>
       <c r="P10" t="n">
-        <v>388.8191908057763</v>
+        <v>388.7695331256579</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32316,28 +32373,28 @@
         <v>0.0563</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01282659657951899</v>
+        <v>0.01413744862155049</v>
       </c>
       <c r="J11" t="n">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="K11" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0001375815737212349</v>
+        <v>0.0001678296576222982</v>
       </c>
       <c r="M11" t="n">
-        <v>6.057174135698901</v>
+        <v>6.051030083154165</v>
       </c>
       <c r="N11" t="n">
-        <v>62.02454218210723</v>
+        <v>61.90725228682053</v>
       </c>
       <c r="O11" t="n">
-        <v>7.87556614994168</v>
+        <v>7.868116184120601</v>
       </c>
       <c r="P11" t="n">
-        <v>388.4138473593094</v>
+        <v>388.4000108063036</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32394,28 +32451,28 @@
         <v>0.0514</v>
       </c>
       <c r="I12" t="n">
-        <v>0.06518556865045312</v>
+        <v>0.06779241450433847</v>
       </c>
       <c r="J12" t="n">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="K12" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002960085445152916</v>
+        <v>0.003212099974050919</v>
       </c>
       <c r="M12" t="n">
-        <v>6.189439775041399</v>
+        <v>6.190139754855205</v>
       </c>
       <c r="N12" t="n">
-        <v>74.96987615161537</v>
+        <v>74.88145955985905</v>
       </c>
       <c r="O12" t="n">
-        <v>8.658514661973806</v>
+        <v>8.653407395925553</v>
       </c>
       <c r="P12" t="n">
-        <v>393.5796526111901</v>
+        <v>393.5524723600705</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -32472,28 +32529,28 @@
         <v>0.0709</v>
       </c>
       <c r="I13" t="n">
-        <v>0.07267262241627513</v>
+        <v>0.07907973768132184</v>
       </c>
       <c r="J13" t="n">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="K13" t="n">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00393568228499197</v>
+        <v>0.00464935278970835</v>
       </c>
       <c r="M13" t="n">
-        <v>5.985932838485256</v>
+        <v>6.009514747529852</v>
       </c>
       <c r="N13" t="n">
-        <v>69.31025101408856</v>
+        <v>69.595261973657</v>
       </c>
       <c r="O13" t="n">
-        <v>8.325277834047856</v>
+        <v>8.342377477293688</v>
       </c>
       <c r="P13" t="n">
-        <v>389.8943274051003</v>
+        <v>389.8271462744506</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -32550,28 +32607,28 @@
         <v>0.09039999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>0.06169946525922277</v>
+        <v>0.06950871823308158</v>
       </c>
       <c r="J14" t="n">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="K14" t="n">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003052255208811361</v>
+        <v>0.003849629587759473</v>
       </c>
       <c r="M14" t="n">
-        <v>6.367224263128989</v>
+        <v>6.392269060303056</v>
       </c>
       <c r="N14" t="n">
-        <v>64.54927049262913</v>
+        <v>65.06312679309355</v>
       </c>
       <c r="O14" t="n">
-        <v>8.034256063421749</v>
+        <v>8.066171755739742</v>
       </c>
       <c r="P14" t="n">
-        <v>386.1137925529871</v>
+        <v>386.0319389081636</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -32609,7 +32666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O572"/>
+  <dimension ref="A1:O573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41146,7 +41203,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>-36.56723288328854,174.69477196310046</t>
+          <t>-36.56723288328855,174.69477196310046</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -43113,7 +43170,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>-36.56725488934546,174.69500027508212</t>
+          <t>-36.56725488934547,174.69500027508212</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -54810,7 +54867,7 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>-36.563904412671704,174.69628271879216</t>
+          <t>-36.5639044126717,174.69628271879216</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -68469,11 +68526,7 @@
           <t>2025-04-11 22:11:41+00:00</t>
         </is>
       </c>
-      <c r="B571" t="inlineStr">
-        <is>
-          <t>-36.56215350472577,174.69840931544388</t>
-        </is>
-      </c>
+      <c r="B571" t="inlineStr"/>
       <c r="C571" t="inlineStr">
         <is>
           <t>-36.56279254994274,174.69789951552406</t>
@@ -68546,11 +68599,7 @@
           <t>2025-05-05 22:11:12+00:00</t>
         </is>
       </c>
-      <c r="B572" t="inlineStr">
-        <is>
-          <t>-36.56219832405586,174.6985960668172</t>
-        </is>
-      </c>
+      <c r="B572" t="inlineStr"/>
       <c r="C572" t="inlineStr"/>
       <c r="D572" t="inlineStr"/>
       <c r="E572" t="inlineStr">
@@ -68604,6 +68653,83 @@
         </is>
       </c>
       <c r="O572" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>-36.56203937342046,174.69793376427813</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>-36.562725974557324,174.69763806745584</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>-36.56325854276264,174.69675655722207</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>-36.56388254907473,174.69621278354853</t>
+        </is>
+      </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>-36.56454224236674,174.6958284845509</t>
+        </is>
+      </c>
+      <c r="G573" t="inlineStr">
+        <is>
+          <t>-36.56518037033362,174.6954368245304</t>
+        </is>
+      </c>
+      <c r="H573" t="inlineStr">
+        <is>
+          <t>-36.56586279171819,174.69521340666833</t>
+        </is>
+      </c>
+      <c r="I573" t="inlineStr">
+        <is>
+          <t>-36.56657098826262,174.69508003705795</t>
+        </is>
+      </c>
+      <c r="J573" t="inlineStr">
+        <is>
+          <t>-36.56725563784303,174.69500804079777</t>
+        </is>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>-36.56794573538291,174.69489324135145</t>
+        </is>
+      </c>
+      <c r="L573" t="inlineStr">
+        <is>
+          <t>-36.56865349682883,174.69495673324084</t>
+        </is>
+      </c>
+      <c r="M573" t="inlineStr">
+        <is>
+          <t>-36.569319695388685,174.6950378970903</t>
+        </is>
+      </c>
+      <c r="N573" t="inlineStr">
+        <is>
+          <t>-36.56998126340354,174.69520677961356</t>
+        </is>
+      </c>
+      <c r="O573" t="inlineStr">
         <is>
           <t>L8</t>
         </is>

--- a/data/nzd0137/nzd0137.xlsx
+++ b/data/nzd0137/nzd0137.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O573"/>
+  <dimension ref="A1:O574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25655,6 +25655,55 @@
         </is>
       </c>
     </row>
+    <row r="574">
+      <c r="A574" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr"/>
+      <c r="C574" t="n">
+        <v>436.66</v>
+      </c>
+      <c r="D574" t="n">
+        <v>387.17</v>
+      </c>
+      <c r="E574" t="n">
+        <v>368.9</v>
+      </c>
+      <c r="F574" t="n">
+        <v>372.3</v>
+      </c>
+      <c r="G574" t="n">
+        <v>372.92</v>
+      </c>
+      <c r="H574" t="n">
+        <v>385.51</v>
+      </c>
+      <c r="I574" t="n">
+        <v>378.01</v>
+      </c>
+      <c r="J574" t="n">
+        <v>390.62</v>
+      </c>
+      <c r="K574" t="n">
+        <v>386.4918181818182</v>
+      </c>
+      <c r="L574" t="n">
+        <v>398.52</v>
+      </c>
+      <c r="M574" t="n">
+        <v>390.38</v>
+      </c>
+      <c r="N574" t="n">
+        <v>393.2864705882353</v>
+      </c>
+      <c r="O574" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25666,7 +25715,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B583"/>
+  <dimension ref="A1:B584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31504,6 +31553,16 @@
       </c>
       <c r="B583" t="n">
         <v>1.03</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -31674,7 +31733,7 @@
         <v>-0.115134243290931</v>
       </c>
       <c r="J2" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K2" t="n">
         <v>294</v>
@@ -31749,28 +31808,28 @@
         <v>0.0103</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3916501156997974</v>
+        <v>-0.398868606876226</v>
       </c>
       <c r="J3" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K3" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L3" t="n">
-        <v>0.008698180774138087</v>
+        <v>0.009062517083706312</v>
       </c>
       <c r="M3" t="n">
-        <v>24.03173132418305</v>
+        <v>23.99996279235355</v>
       </c>
       <c r="N3" t="n">
-        <v>834.036379516697</v>
+        <v>832.2158295255214</v>
       </c>
       <c r="O3" t="n">
-        <v>28.87968800933793</v>
+        <v>28.84815123236707</v>
       </c>
       <c r="P3" t="n">
-        <v>459.8114922137138</v>
+        <v>459.8928413533058</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31827,28 +31886,28 @@
         <v>0.0215</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1096923204614294</v>
+        <v>-0.1168992538065383</v>
       </c>
       <c r="J4" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K4" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002186616814059406</v>
+        <v>0.00249254138859667</v>
       </c>
       <c r="M4" t="n">
-        <v>13.48413684353686</v>
+        <v>13.48167275023797</v>
       </c>
       <c r="N4" t="n">
-        <v>283.9480903999159</v>
+        <v>283.5848384737467</v>
       </c>
       <c r="O4" t="n">
-        <v>16.85075934193815</v>
+        <v>16.83997738934785</v>
       </c>
       <c r="P4" t="n">
-        <v>402.7479054884073</v>
+        <v>402.8253851164737</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31905,28 +31964,28 @@
         <v>0.0316</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.09660825101514968</v>
+        <v>-0.1012264100049129</v>
       </c>
       <c r="J5" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K5" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003064795982792412</v>
+        <v>0.003374448977578659</v>
       </c>
       <c r="M5" t="n">
-        <v>9.707590098337414</v>
+        <v>9.70758878255088</v>
       </c>
       <c r="N5" t="n">
-        <v>158.5005656551164</v>
+        <v>158.3622176817255</v>
       </c>
       <c r="O5" t="n">
-        <v>12.58970077702867</v>
+        <v>12.58420508739926</v>
       </c>
       <c r="P5" t="n">
-        <v>381.451389161268</v>
+        <v>381.5004237245553</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31983,28 +32042,28 @@
         <v>0.0308</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1175855489394903</v>
+        <v>-0.1193614019035817</v>
       </c>
       <c r="J6" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K6" t="n">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00609801196363724</v>
+        <v>0.006309856800267188</v>
       </c>
       <c r="M6" t="n">
-        <v>8.164799663699968</v>
+        <v>8.15631986083824</v>
       </c>
       <c r="N6" t="n">
-        <v>116.9547903047552</v>
+        <v>116.7196351882925</v>
       </c>
       <c r="O6" t="n">
-        <v>10.81456380557049</v>
+        <v>10.80368618520052</v>
       </c>
       <c r="P6" t="n">
-        <v>379.2504592078149</v>
+        <v>379.2692604589733</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32061,28 +32120,28 @@
         <v>0.0318</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.06432501325125678</v>
+        <v>-0.06768420139472474</v>
       </c>
       <c r="J7" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K7" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0018436801382401</v>
+        <v>0.00204826164630223</v>
       </c>
       <c r="M7" t="n">
-        <v>8.153653597105556</v>
+        <v>8.152500649316849</v>
       </c>
       <c r="N7" t="n">
-        <v>114.630911104515</v>
+        <v>114.4979512258606</v>
       </c>
       <c r="O7" t="n">
-        <v>10.7065826062528</v>
+        <v>10.70037154615953</v>
       </c>
       <c r="P7" t="n">
-        <v>382.0330666712809</v>
+        <v>382.0686594309865</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32139,28 +32198,28 @@
         <v>0.0313</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.01124210180258288</v>
+        <v>-0.008155630673783699</v>
       </c>
       <c r="J8" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K8" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L8" t="n">
-        <v>7.396067469289669e-05</v>
+        <v>3.905666584769207e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>6.977691173060466</v>
+        <v>6.980996435051564</v>
       </c>
       <c r="N8" t="n">
-        <v>87.67506365276162</v>
+        <v>87.58523308017162</v>
       </c>
       <c r="O8" t="n">
-        <v>9.363496336986607</v>
+        <v>9.358698257779851</v>
       </c>
       <c r="P8" t="n">
-        <v>378.8776661192155</v>
+        <v>378.8447775322701</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32217,28 +32276,28 @@
         <v>0.0406</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04261024423759784</v>
+        <v>0.0416467119828794</v>
       </c>
       <c r="J9" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K9" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001060850338219455</v>
+        <v>0.001018026600834943</v>
       </c>
       <c r="M9" t="n">
-        <v>7.048207798354408</v>
+        <v>7.037037255891951</v>
       </c>
       <c r="N9" t="n">
-        <v>87.44619469579888</v>
+        <v>87.26259123226568</v>
       </c>
       <c r="O9" t="n">
-        <v>9.351267010186314</v>
+        <v>9.341444815030792</v>
       </c>
       <c r="P9" t="n">
-        <v>379.0676052590906</v>
+        <v>379.0778474451507</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32295,28 +32354,28 @@
         <v>0.044</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.03197024275470516</v>
+        <v>-0.03078812026737419</v>
       </c>
       <c r="J10" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K10" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0005366389232637214</v>
+        <v>0.000499917231692848</v>
       </c>
       <c r="M10" t="n">
-        <v>7.577377370853724</v>
+        <v>7.567305836898807</v>
       </c>
       <c r="N10" t="n">
-        <v>96.95457948270979</v>
+        <v>96.7593038962021</v>
       </c>
       <c r="O10" t="n">
-        <v>9.846551654397075</v>
+        <v>9.836630718706589</v>
       </c>
       <c r="P10" t="n">
-        <v>388.7695331256579</v>
+        <v>388.7569778443406</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32373,28 +32432,28 @@
         <v>0.0563</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01413744862155049</v>
+        <v>0.01314982112918422</v>
       </c>
       <c r="J11" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K11" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0001678296576222982</v>
+        <v>0.0001458269081462404</v>
       </c>
       <c r="M11" t="n">
-        <v>6.051030083154165</v>
+        <v>6.042213139776557</v>
       </c>
       <c r="N11" t="n">
-        <v>61.90725228682053</v>
+        <v>61.78193592962941</v>
       </c>
       <c r="O11" t="n">
-        <v>7.868116184120601</v>
+        <v>7.860148594627802</v>
       </c>
       <c r="P11" t="n">
-        <v>388.4000108063036</v>
+        <v>388.410457005074</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32451,28 +32510,28 @@
         <v>0.0514</v>
       </c>
       <c r="I12" t="n">
-        <v>0.06779241450433847</v>
+        <v>0.06919696888499827</v>
       </c>
       <c r="J12" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K12" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L12" t="n">
-        <v>0.003212099974050919</v>
+        <v>0.003360395359042534</v>
       </c>
       <c r="M12" t="n">
-        <v>6.190139754855205</v>
+        <v>6.184168798054465</v>
       </c>
       <c r="N12" t="n">
-        <v>74.88145955985905</v>
+        <v>74.73844860117714</v>
       </c>
       <c r="O12" t="n">
-        <v>8.653407395925553</v>
+        <v>8.645140172442384</v>
       </c>
       <c r="P12" t="n">
-        <v>393.5524723600705</v>
+        <v>393.5377979592569</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -32529,28 +32588,28 @@
         <v>0.0709</v>
       </c>
       <c r="I13" t="n">
-        <v>0.07907973768132184</v>
+        <v>0.07839412782333775</v>
       </c>
       <c r="J13" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K13" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00464935278970835</v>
+        <v>0.004590919472227117</v>
       </c>
       <c r="M13" t="n">
-        <v>6.009514747529852</v>
+        <v>5.998526490060458</v>
       </c>
       <c r="N13" t="n">
-        <v>69.595261973657</v>
+        <v>69.44038266203637</v>
       </c>
       <c r="O13" t="n">
-        <v>8.342377477293688</v>
+        <v>8.33308962282516</v>
       </c>
       <c r="P13" t="n">
-        <v>389.8271462744506</v>
+        <v>389.834349627117</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -32607,28 +32666,28 @@
         <v>0.09039999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>0.06950871823308158</v>
+        <v>0.07200410520915541</v>
       </c>
       <c r="J14" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K14" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003849629587759473</v>
+        <v>0.004145198765502678</v>
       </c>
       <c r="M14" t="n">
-        <v>6.392269060303056</v>
+        <v>6.390183529722325</v>
       </c>
       <c r="N14" t="n">
-        <v>65.06312679309355</v>
+        <v>64.9814434388788</v>
       </c>
       <c r="O14" t="n">
-        <v>8.066171755739742</v>
+        <v>8.061106837083775</v>
       </c>
       <c r="P14" t="n">
-        <v>386.0319389081636</v>
+        <v>386.0057304681129</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -32666,7 +32725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O573"/>
+  <dimension ref="A1:O574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68735,6 +68794,79 @@
         </is>
       </c>
     </row>
+    <row r="574">
+      <c r="A574" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr"/>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>-36.562686284062984,174.69748220029052</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>-36.56323392612401,174.69666028078674</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>-36.56387726229,174.69619587269838</t>
+        </is>
+      </c>
+      <c r="F574" t="inlineStr">
+        <is>
+          <t>-36.564542670617406,174.6958295514941</t>
+        </is>
+      </c>
+      <c r="G574" t="inlineStr">
+        <is>
+          <t>-36.56517438536052,174.6954184536106</t>
+        </is>
+      </c>
+      <c r="H574" t="inlineStr">
+        <is>
+          <t>-36.56588018495056,174.69528947449467</t>
+        </is>
+      </c>
+      <c r="I574" t="inlineStr">
+        <is>
+          <t>-36.56654982489587,174.6949689070555</t>
+        </is>
+      </c>
+      <c r="J574" t="inlineStr">
+        <is>
+          <t>-36.567247254640975,174.69492106479004</t>
+        </is>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>-36.56794406237567,174.69483444755508</t>
+        </is>
+      </c>
+      <c r="L574" t="inlineStr">
+        <is>
+          <t>-36.56865369815371,174.69492667891737</t>
+        </is>
+      </c>
+      <c r="M574" t="inlineStr">
+        <is>
+          <t>-36.56933871546102,174.69486817496343</t>
+        </is>
+      </c>
+      <c r="N574" t="inlineStr">
+        <is>
+          <t>-36.57000429083538,174.69508217363654</t>
+        </is>
+      </c>
+      <c r="O574" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0137/nzd0137.xlsx
+++ b/data/nzd0137/nzd0137.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O574"/>
+  <dimension ref="A1:O576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25704,6 +25704,92 @@
         </is>
       </c>
     </row>
+    <row r="575">
+      <c r="A575" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr"/>
+      <c r="C575" t="inlineStr"/>
+      <c r="D575" t="inlineStr"/>
+      <c r="E575" t="inlineStr"/>
+      <c r="F575" t="inlineStr"/>
+      <c r="G575" t="n">
+        <v>354.3</v>
+      </c>
+      <c r="H575" t="inlineStr"/>
+      <c r="I575" t="inlineStr"/>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="n">
+        <v>358.1318181818182</v>
+      </c>
+      <c r="L575" t="n">
+        <v>366.38</v>
+      </c>
+      <c r="M575" t="n">
+        <v>373.4284615384615</v>
+      </c>
+      <c r="N575" t="n">
+        <v>419.6023529411765</v>
+      </c>
+      <c r="O575" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:28+00:00</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>483.64</v>
+      </c>
+      <c r="C576" t="n">
+        <v>471.55</v>
+      </c>
+      <c r="D576" t="n">
+        <v>401.07</v>
+      </c>
+      <c r="E576" t="n">
+        <v>376.72</v>
+      </c>
+      <c r="F576" t="n">
+        <v>371.54</v>
+      </c>
+      <c r="G576" t="n">
+        <v>374.3</v>
+      </c>
+      <c r="H576" t="n">
+        <v>370.87</v>
+      </c>
+      <c r="I576" t="n">
+        <v>379.97</v>
+      </c>
+      <c r="J576" t="n">
+        <v>384.54</v>
+      </c>
+      <c r="K576" t="n">
+        <v>391.5436363636364</v>
+      </c>
+      <c r="L576" t="n">
+        <v>389.71</v>
+      </c>
+      <c r="M576" t="n">
+        <v>404.5023076923077</v>
+      </c>
+      <c r="N576" t="n">
+        <v>391.8935294117647</v>
+      </c>
+      <c r="O576" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25715,7 +25801,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B584"/>
+  <dimension ref="A1:B586"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31563,6 +31649,26 @@
       </c>
       <c r="B584" t="n">
         <v>0.78</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>
@@ -31730,28 +31836,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.115134243290931</v>
+        <v>-0.09857368459336779</v>
       </c>
       <c r="J2" t="n">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="K2" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0005512024974652086</v>
+        <v>0.0004059614632118125</v>
       </c>
       <c r="M2" t="n">
-        <v>28.13619701174884</v>
+        <v>28.11871583913165</v>
       </c>
       <c r="N2" t="n">
-        <v>1247.845357624213</v>
+        <v>1245.843298740927</v>
       </c>
       <c r="O2" t="n">
-        <v>35.32485467237215</v>
+        <v>35.29650547491815</v>
       </c>
       <c r="P2" t="n">
-        <v>460.8709443165422</v>
+        <v>460.6912492079161</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31808,28 +31914,28 @@
         <v>0.0103</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.398868606876226</v>
+        <v>-0.3866312701158541</v>
       </c>
       <c r="J3" t="n">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="K3" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L3" t="n">
-        <v>0.009062517083706312</v>
+        <v>0.008552510537127911</v>
       </c>
       <c r="M3" t="n">
-        <v>23.99996279235355</v>
+        <v>23.99686757692995</v>
       </c>
       <c r="N3" t="n">
-        <v>832.2158295255214</v>
+        <v>831.2594892466108</v>
       </c>
       <c r="O3" t="n">
-        <v>28.84815123236707</v>
+        <v>28.83157105061413</v>
       </c>
       <c r="P3" t="n">
-        <v>459.8928413533058</v>
+        <v>459.7543940261078</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31886,28 +31992,28 @@
         <v>0.0215</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1168992538065383</v>
+        <v>-0.11617265671281</v>
       </c>
       <c r="J4" t="n">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="K4" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00249254138859667</v>
+        <v>0.002475712878451719</v>
       </c>
       <c r="M4" t="n">
-        <v>13.48167275023797</v>
+        <v>13.44578973336216</v>
       </c>
       <c r="N4" t="n">
-        <v>283.5848384737467</v>
+        <v>282.7555714552761</v>
       </c>
       <c r="O4" t="n">
-        <v>16.83997738934785</v>
+        <v>16.81533738749467</v>
       </c>
       <c r="P4" t="n">
-        <v>402.8253851164737</v>
+        <v>402.8175406165106</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31964,28 +32070,28 @@
         <v>0.0316</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1012264100049129</v>
+        <v>-0.1022154587387609</v>
       </c>
       <c r="J5" t="n">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="K5" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003374448977578659</v>
+        <v>0.003456441309840685</v>
       </c>
       <c r="M5" t="n">
-        <v>9.70758878255088</v>
+        <v>9.689471024686192</v>
       </c>
       <c r="N5" t="n">
-        <v>158.3622176817255</v>
+        <v>157.9978148309526</v>
       </c>
       <c r="O5" t="n">
-        <v>12.58420508739926</v>
+        <v>12.56971816831836</v>
       </c>
       <c r="P5" t="n">
-        <v>381.5004237245553</v>
+        <v>381.5109690697267</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32042,28 +32148,28 @@
         <v>0.0308</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1193614019035817</v>
+        <v>-0.121468985760871</v>
       </c>
       <c r="J6" t="n">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="K6" t="n">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006309856800267188</v>
+        <v>0.006561146916797878</v>
       </c>
       <c r="M6" t="n">
-        <v>8.15631986083824</v>
+        <v>8.149796620684231</v>
       </c>
       <c r="N6" t="n">
-        <v>116.7196351882925</v>
+        <v>116.4996597417292</v>
       </c>
       <c r="O6" t="n">
-        <v>10.80368618520052</v>
+        <v>10.79350081028992</v>
       </c>
       <c r="P6" t="n">
-        <v>379.2692604589733</v>
+        <v>379.2916645041009</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32120,28 +32226,28 @@
         <v>0.0318</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.06768420139472474</v>
+        <v>-0.08197580092310323</v>
       </c>
       <c r="J7" t="n">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="K7" t="n">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00204826164630223</v>
+        <v>0.002988853518790413</v>
       </c>
       <c r="M7" t="n">
-        <v>8.152500649316849</v>
+        <v>8.189383418915481</v>
       </c>
       <c r="N7" t="n">
-        <v>114.4979512258606</v>
+        <v>115.5575112403545</v>
       </c>
       <c r="O7" t="n">
-        <v>10.70037154615953</v>
+        <v>10.74976796216339</v>
       </c>
       <c r="P7" t="n">
-        <v>382.0686594309865</v>
+        <v>382.2203037593135</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32198,28 +32304,28 @@
         <v>0.0313</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.008155630673783699</v>
+        <v>-0.01162197280168161</v>
       </c>
       <c r="J8" t="n">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="K8" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L8" t="n">
-        <v>3.905666584769207e-05</v>
+        <v>7.955398943537695e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>6.980996435051564</v>
+        <v>6.978799661482417</v>
       </c>
       <c r="N8" t="n">
-        <v>87.58523308017162</v>
+        <v>87.52318214680992</v>
       </c>
       <c r="O8" t="n">
-        <v>9.358698257779851</v>
+        <v>9.355382522741115</v>
       </c>
       <c r="P8" t="n">
-        <v>378.8447775322701</v>
+        <v>378.8818620256447</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32276,28 +32382,28 @@
         <v>0.0406</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0416467119828794</v>
+        <v>0.04156161715874725</v>
       </c>
       <c r="J9" t="n">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="K9" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001018026600834943</v>
+        <v>0.001018595961408408</v>
       </c>
       <c r="M9" t="n">
-        <v>7.037037255891951</v>
+        <v>7.021861372225109</v>
       </c>
       <c r="N9" t="n">
-        <v>87.26259123226568</v>
+        <v>87.06961222876761</v>
       </c>
       <c r="O9" t="n">
-        <v>9.341444815030792</v>
+        <v>9.331109914086728</v>
       </c>
       <c r="P9" t="n">
-        <v>379.0778474451507</v>
+        <v>379.078755556768</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32354,28 +32460,28 @@
         <v>0.044</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.03078812026737419</v>
+        <v>-0.03229820548722771</v>
       </c>
       <c r="J10" t="n">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="K10" t="n">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L10" t="n">
-        <v>0.000499917231692848</v>
+        <v>0.0005525395904494301</v>
       </c>
       <c r="M10" t="n">
-        <v>7.567305836898807</v>
+        <v>7.557523276074195</v>
       </c>
       <c r="N10" t="n">
-        <v>96.7593038962021</v>
+        <v>96.5745625543864</v>
       </c>
       <c r="O10" t="n">
-        <v>9.836630718706589</v>
+        <v>9.82723575347546</v>
       </c>
       <c r="P10" t="n">
-        <v>388.7569778443406</v>
+        <v>388.7730787681832</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32432,28 +32538,28 @@
         <v>0.0563</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01314982112918422</v>
+        <v>0.001212120704277657</v>
       </c>
       <c r="J11" t="n">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="K11" t="n">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0001458269081462404</v>
+        <v>1.209688487269212e-06</v>
       </c>
       <c r="M11" t="n">
-        <v>6.042213139776557</v>
+        <v>6.08421757968083</v>
       </c>
       <c r="N11" t="n">
-        <v>61.78193592962941</v>
+        <v>63.57686384244847</v>
       </c>
       <c r="O11" t="n">
-        <v>7.860148594627802</v>
+        <v>7.973510133087465</v>
       </c>
       <c r="P11" t="n">
-        <v>388.410457005074</v>
+        <v>388.5367923067112</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32510,28 +32616,28 @@
         <v>0.0514</v>
       </c>
       <c r="I12" t="n">
-        <v>0.06919696888499827</v>
+        <v>0.05423123234201521</v>
       </c>
       <c r="J12" t="n">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="K12" t="n">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="L12" t="n">
-        <v>0.003360395359042534</v>
+        <v>0.002033809346704052</v>
       </c>
       <c r="M12" t="n">
-        <v>6.184168798054465</v>
+        <v>6.225501071468852</v>
       </c>
       <c r="N12" t="n">
-        <v>74.73844860117714</v>
+        <v>76.30760557679905</v>
       </c>
       <c r="O12" t="n">
-        <v>8.645140172442384</v>
+        <v>8.735422461266486</v>
       </c>
       <c r="P12" t="n">
-        <v>393.5377979592569</v>
+        <v>393.6943734032293</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -32588,28 +32694,28 @@
         <v>0.0709</v>
       </c>
       <c r="I13" t="n">
-        <v>0.07839412782333775</v>
+        <v>0.07580256780366056</v>
       </c>
       <c r="J13" t="n">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="K13" t="n">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="L13" t="n">
-        <v>0.004590919472227117</v>
+        <v>0.004264436897698842</v>
       </c>
       <c r="M13" t="n">
-        <v>5.998526490060458</v>
+        <v>6.039949243423576</v>
       </c>
       <c r="N13" t="n">
-        <v>69.44038266203637</v>
+        <v>70.2650620337495</v>
       </c>
       <c r="O13" t="n">
-        <v>8.33308962282516</v>
+        <v>8.382425784565557</v>
       </c>
       <c r="P13" t="n">
-        <v>389.834349627117</v>
+        <v>389.8614102017926</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -32666,28 +32772,28 @@
         <v>0.09039999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07200410520915541</v>
+        <v>0.08817284427920133</v>
       </c>
       <c r="J14" t="n">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="K14" t="n">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="L14" t="n">
-        <v>0.004145198765502678</v>
+        <v>0.006046384318777465</v>
       </c>
       <c r="M14" t="n">
-        <v>6.390183529722325</v>
+        <v>6.442512841018528</v>
       </c>
       <c r="N14" t="n">
-        <v>64.9814434388788</v>
+        <v>67.00435904566525</v>
       </c>
       <c r="O14" t="n">
-        <v>8.061106837083775</v>
+        <v>8.185619038635091</v>
       </c>
       <c r="P14" t="n">
-        <v>386.0057304681129</v>
+        <v>385.8357075571251</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -32725,7 +32831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O574"/>
+  <dimension ref="A1:O576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68867,6 +68973,128 @@
         </is>
       </c>
     </row>
+    <row r="575">
+      <c r="A575" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr"/>
+      <c r="C575" t="inlineStr"/>
+      <c r="D575" t="inlineStr"/>
+      <c r="E575" t="inlineStr"/>
+      <c r="F575" t="inlineStr"/>
+      <c r="G575" t="inlineStr">
+        <is>
+          <t>-36.565111542966996,174.69522555911837</t>
+        </is>
+      </c>
+      <c r="H575" t="inlineStr"/>
+      <c r="I575" t="inlineStr"/>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>-36.567935050975485,174.69451778126816</t>
+        </is>
+      </c>
+      <c r="L575" t="inlineStr">
+        <is>
+          <t>-36.56865610298825,174.69456759116608</t>
+        </is>
+      </c>
+      <c r="M575" t="inlineStr">
+        <is>
+          <t>-36.56935973867287,174.6946805755924</t>
+        </is>
+      </c>
+      <c r="N575" t="inlineStr">
+        <is>
+          <t>-36.569951325182174,174.69536878007864</t>
+        </is>
+      </c>
+      <c r="O575" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:28+00:00</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>-36.56211580383099,174.69825222600144</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>-36.56278093863003,174.69785391656362</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>-36.56327177689613,174.69680831648023</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>-36.56390273002298,174.69627733648557</t>
+        </is>
+      </c>
+      <c r="F576" t="inlineStr">
+        <is>
+          <t>-36.564539619331256,174.69582194952412</t>
+        </is>
+      </c>
+      <c r="G576" t="inlineStr">
+        <is>
+          <t>-36.565179042839844,174.69543274977727</t>
+        </is>
+      </c>
+      <c r="H576" t="inlineStr">
+        <is>
+          <t>-36.56584420228795,174.69513210764714</t>
+        </is>
+      </c>
+      <c r="I576" t="inlineStr">
+        <is>
+          <t>-36.56655388363188,174.6949902196543</t>
+        </is>
+      </c>
+      <c r="J576" t="inlineStr">
+        <is>
+          <t>-36.56724075333817,174.69485361401976</t>
+        </is>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>-36.567945667504205,174.69489085589873</t>
+        </is>
+      </c>
+      <c r="L576" t="inlineStr">
+        <is>
+          <t>-36.56865435745833,174.6948282482117</t>
+        </is>
+      </c>
+      <c r="M576" t="inlineStr">
+        <is>
+          <t>-36.569321200823225,174.6950244637027</t>
+        </is>
+      </c>
+      <c r="N576" t="inlineStr">
+        <is>
+          <t>-36.57000709437203,174.69506700309367</t>
+        </is>
+      </c>
+      <c r="O576" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0137/nzd0137.xlsx
+++ b/data/nzd0137/nzd0137.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O576"/>
+  <dimension ref="A1:O579"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25790,6 +25790,155 @@
         </is>
       </c>
     </row>
+    <row r="577">
+      <c r="A577" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>458.91</v>
+      </c>
+      <c r="C577" t="n">
+        <v>455.73</v>
+      </c>
+      <c r="D577" t="n">
+        <v>381.29</v>
+      </c>
+      <c r="E577" t="n">
+        <v>367.0333333333333</v>
+      </c>
+      <c r="F577" t="n">
+        <v>372.2833333333333</v>
+      </c>
+      <c r="G577" t="n">
+        <v>372.5033333333333</v>
+      </c>
+      <c r="H577" t="n">
+        <v>372.2833333333333</v>
+      </c>
+      <c r="I577" t="n">
+        <v>375.37</v>
+      </c>
+      <c r="J577" t="n">
+        <v>380.72</v>
+      </c>
+      <c r="K577" t="n">
+        <v>383.3654545454546</v>
+      </c>
+      <c r="L577" t="n">
+        <v>395.25</v>
+      </c>
+      <c r="M577" t="n">
+        <v>392.7592307692308</v>
+      </c>
+      <c r="N577" t="n">
+        <v>392.0088235294118</v>
+      </c>
+      <c r="O577" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>444.96</v>
+      </c>
+      <c r="C578" t="inlineStr"/>
+      <c r="D578" t="n">
+        <v>379.93</v>
+      </c>
+      <c r="E578" t="n">
+        <v>368</v>
+      </c>
+      <c r="F578" t="n">
+        <v>367.22</v>
+      </c>
+      <c r="G578" t="n">
+        <v>379.35</v>
+      </c>
+      <c r="H578" t="n">
+        <v>375.87</v>
+      </c>
+      <c r="I578" t="n">
+        <v>370.85</v>
+      </c>
+      <c r="J578" t="n">
+        <v>375.94</v>
+      </c>
+      <c r="K578" t="n">
+        <v>382.5363636363636</v>
+      </c>
+      <c r="L578" t="n">
+        <v>383.48</v>
+      </c>
+      <c r="M578" t="n">
+        <v>392.3146153846154</v>
+      </c>
+      <c r="N578" t="n">
+        <v>382.8388235294117</v>
+      </c>
+      <c r="O578" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>430.18</v>
+      </c>
+      <c r="C579" t="n">
+        <v>466.51</v>
+      </c>
+      <c r="D579" t="inlineStr"/>
+      <c r="E579" t="n">
+        <v>365.84</v>
+      </c>
+      <c r="F579" t="n">
+        <v>365.05</v>
+      </c>
+      <c r="G579" t="n">
+        <v>369.09</v>
+      </c>
+      <c r="H579" t="n">
+        <v>371.54</v>
+      </c>
+      <c r="I579" t="n">
+        <v>377.59</v>
+      </c>
+      <c r="J579" t="n">
+        <v>384.45</v>
+      </c>
+      <c r="K579" t="n">
+        <v>388.9163636363636</v>
+      </c>
+      <c r="L579" t="n">
+        <v>388.96</v>
+      </c>
+      <c r="M579" t="n">
+        <v>386.3338461538461</v>
+      </c>
+      <c r="N579" t="n">
+        <v>379.0417647058824</v>
+      </c>
+      <c r="O579" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25801,7 +25950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B586"/>
+  <dimension ref="A1:B590"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31669,6 +31818,46 @@
       </c>
       <c r="B586" t="n">
         <v>0.24</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>-0.9</v>
       </c>
     </row>
   </sheetData>
@@ -31836,28 +32025,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.09857368459336779</v>
+        <v>-0.1239538850308499</v>
       </c>
       <c r="J2" t="n">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="K2" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0004059614632118125</v>
+        <v>0.000652353244902204</v>
       </c>
       <c r="M2" t="n">
-        <v>28.11871583913165</v>
+        <v>27.98921068536076</v>
       </c>
       <c r="N2" t="n">
-        <v>1245.843298740927</v>
+        <v>1236.452118273856</v>
       </c>
       <c r="O2" t="n">
-        <v>35.29650547491815</v>
+        <v>35.1632211020813</v>
       </c>
       <c r="P2" t="n">
-        <v>460.6912492079161</v>
+        <v>460.9677328233583</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31914,28 +32103,28 @@
         <v>0.0103</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3866312701158541</v>
+        <v>-0.3740270080994243</v>
       </c>
       <c r="J3" t="n">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="K3" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L3" t="n">
-        <v>0.008552510537127911</v>
+        <v>0.008087048957928444</v>
       </c>
       <c r="M3" t="n">
-        <v>23.99686757692995</v>
+        <v>23.93041600894235</v>
       </c>
       <c r="N3" t="n">
-        <v>831.2594892466108</v>
+        <v>827.6101344620006</v>
       </c>
       <c r="O3" t="n">
-        <v>28.83157105061413</v>
+        <v>28.76821396023744</v>
       </c>
       <c r="P3" t="n">
-        <v>459.7543940261078</v>
+        <v>459.6113219259576</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31992,28 +32181,28 @@
         <v>0.0215</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.11617265671281</v>
+        <v>-0.1376261531589397</v>
       </c>
       <c r="J4" t="n">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="K4" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002475712878451719</v>
+        <v>0.003484244389681534</v>
       </c>
       <c r="M4" t="n">
-        <v>13.44578973336216</v>
+        <v>13.47762914420257</v>
       </c>
       <c r="N4" t="n">
-        <v>282.7555714552761</v>
+        <v>283.2196417441236</v>
       </c>
       <c r="O4" t="n">
-        <v>16.81533738749467</v>
+        <v>16.8291307483222</v>
       </c>
       <c r="P4" t="n">
-        <v>402.8175406165106</v>
+        <v>403.0497382048398</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32070,28 +32259,28 @@
         <v>0.0316</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1022154587387609</v>
+        <v>-0.1183922777125658</v>
       </c>
       <c r="J5" t="n">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="K5" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003456441309840685</v>
+        <v>0.004667710617424214</v>
       </c>
       <c r="M5" t="n">
-        <v>9.689471024686192</v>
+        <v>9.700936345712336</v>
       </c>
       <c r="N5" t="n">
-        <v>157.9978148309526</v>
+        <v>157.8649526544489</v>
       </c>
       <c r="O5" t="n">
-        <v>12.56971816831836</v>
+        <v>12.56443204663262</v>
       </c>
       <c r="P5" t="n">
-        <v>381.5109690697267</v>
+        <v>381.6839737063349</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32148,28 +32337,28 @@
         <v>0.0308</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.121468985760871</v>
+        <v>-0.1321711566400157</v>
       </c>
       <c r="J6" t="n">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="K6" t="n">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006561146916797878</v>
+        <v>0.007835232198375897</v>
       </c>
       <c r="M6" t="n">
-        <v>8.149796620684231</v>
+        <v>8.155601761010647</v>
       </c>
       <c r="N6" t="n">
-        <v>116.4996597417292</v>
+        <v>116.1868166104749</v>
       </c>
       <c r="O6" t="n">
-        <v>10.79350081028992</v>
+        <v>10.77899886865542</v>
       </c>
       <c r="P6" t="n">
-        <v>379.2916645041009</v>
+        <v>379.4058010985779</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32226,28 +32415,28 @@
         <v>0.0318</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.08197580092310323</v>
+        <v>-0.09051808632725571</v>
       </c>
       <c r="J7" t="n">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="K7" t="n">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002988853518790413</v>
+        <v>0.003680517909353531</v>
       </c>
       <c r="M7" t="n">
-        <v>8.189383418915481</v>
+        <v>8.180375502606685</v>
       </c>
       <c r="N7" t="n">
-        <v>115.5575112403545</v>
+        <v>115.1814395077915</v>
       </c>
       <c r="O7" t="n">
-        <v>10.74976796216339</v>
+        <v>10.73226162128894</v>
       </c>
       <c r="P7" t="n">
-        <v>382.2203037593135</v>
+        <v>382.3114474377845</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32304,28 +32493,28 @@
         <v>0.0313</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.01162197280168161</v>
+        <v>-0.01868539764469983</v>
       </c>
       <c r="J8" t="n">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="K8" t="n">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="L8" t="n">
-        <v>7.955398943537695e-05</v>
+        <v>0.0002079599851767533</v>
       </c>
       <c r="M8" t="n">
-        <v>6.978799661482417</v>
+        <v>6.959690261071832</v>
       </c>
       <c r="N8" t="n">
-        <v>87.52318214680992</v>
+        <v>87.15032164368434</v>
       </c>
       <c r="O8" t="n">
-        <v>9.355382522741115</v>
+        <v>9.335433661254539</v>
       </c>
       <c r="P8" t="n">
-        <v>378.8818620256447</v>
+        <v>378.9576525846004</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32382,28 +32571,28 @@
         <v>0.0406</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04156161715874725</v>
+        <v>0.03422520447741453</v>
       </c>
       <c r="J9" t="n">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="K9" t="n">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001018595961408408</v>
+        <v>0.0006985742613880852</v>
       </c>
       <c r="M9" t="n">
-        <v>7.021861372225109</v>
+        <v>7.008996412648957</v>
       </c>
       <c r="N9" t="n">
-        <v>87.06961222876761</v>
+        <v>86.7469699601433</v>
       </c>
       <c r="O9" t="n">
-        <v>9.331109914086728</v>
+        <v>9.313805342616051</v>
       </c>
       <c r="P9" t="n">
-        <v>379.078755556768</v>
+        <v>379.1572585318908</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32460,28 +32649,28 @@
         <v>0.044</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.03229820548722771</v>
+        <v>-0.04217919902752752</v>
       </c>
       <c r="J10" t="n">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="K10" t="n">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0005525395904494301</v>
+        <v>0.0009506892013806389</v>
       </c>
       <c r="M10" t="n">
-        <v>7.557523276074195</v>
+        <v>7.551688666015044</v>
       </c>
       <c r="N10" t="n">
-        <v>96.5745625543864</v>
+        <v>96.39083743560356</v>
       </c>
       <c r="O10" t="n">
-        <v>9.82723575347546</v>
+        <v>9.817883551743908</v>
       </c>
       <c r="P10" t="n">
-        <v>388.7730787681832</v>
+        <v>388.8787085493516</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32538,28 +32727,28 @@
         <v>0.0563</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001212120704277657</v>
+        <v>-0.003422984857389488</v>
       </c>
       <c r="J11" t="n">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="K11" t="n">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="L11" t="n">
-        <v>1.209688487269212e-06</v>
+        <v>9.755198856153946e-06</v>
       </c>
       <c r="M11" t="n">
-        <v>6.08421757968083</v>
+        <v>6.068123406870386</v>
       </c>
       <c r="N11" t="n">
-        <v>63.57686384244847</v>
+        <v>63.29753753392043</v>
       </c>
       <c r="O11" t="n">
-        <v>7.973510133087465</v>
+        <v>7.955974958100386</v>
       </c>
       <c r="P11" t="n">
-        <v>388.5367923067112</v>
+        <v>388.5861361581303</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32616,28 +32805,28 @@
         <v>0.0514</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05423123234201521</v>
+        <v>0.0466592848078895</v>
       </c>
       <c r="J12" t="n">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="K12" t="n">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002033809346704052</v>
+        <v>0.001519461292600499</v>
       </c>
       <c r="M12" t="n">
-        <v>6.225501071468852</v>
+        <v>6.220042150230253</v>
       </c>
       <c r="N12" t="n">
-        <v>76.30760557679905</v>
+        <v>76.18077214803358</v>
       </c>
       <c r="O12" t="n">
-        <v>8.735422461266486</v>
+        <v>8.728159722875928</v>
       </c>
       <c r="P12" t="n">
-        <v>393.6943734032293</v>
+        <v>393.7740664507609</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -32694,28 +32883,28 @@
         <v>0.0709</v>
       </c>
       <c r="I13" t="n">
-        <v>0.07580256780366056</v>
+        <v>0.07395415350615024</v>
       </c>
       <c r="J13" t="n">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="K13" t="n">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="L13" t="n">
-        <v>0.004264436897698842</v>
+        <v>0.004113601303518344</v>
       </c>
       <c r="M13" t="n">
-        <v>6.039949243423576</v>
+        <v>6.013002695573702</v>
       </c>
       <c r="N13" t="n">
-        <v>70.2650620337495</v>
+        <v>69.85704782670375</v>
       </c>
       <c r="O13" t="n">
-        <v>8.382425784565557</v>
+        <v>8.358052872930617</v>
       </c>
       <c r="P13" t="n">
-        <v>389.8614102017926</v>
+        <v>389.8809982370441</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -32772,28 +32961,28 @@
         <v>0.09039999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>0.08817284427920133</v>
+        <v>0.08344820036131211</v>
       </c>
       <c r="J14" t="n">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="K14" t="n">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="L14" t="n">
-        <v>0.006046384318777465</v>
+        <v>0.00547304538204374</v>
       </c>
       <c r="M14" t="n">
-        <v>6.442512841018528</v>
+        <v>6.439906050702885</v>
       </c>
       <c r="N14" t="n">
-        <v>67.00435904566525</v>
+        <v>66.83159930894084</v>
       </c>
       <c r="O14" t="n">
-        <v>8.185619038635091</v>
+        <v>8.17505959054372</v>
       </c>
       <c r="P14" t="n">
-        <v>385.8357075571251</v>
+        <v>385.8857390822114</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -32831,7 +33020,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O576"/>
+  <dimension ref="A1:O579"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69095,6 +69284,229 @@
         </is>
       </c>
     </row>
+    <row r="577">
+      <c r="A577" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>-36.562052248947204,174.69798741229397</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>-36.562738020025,174.6976853709866</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>-36.56321791437393,174.6965976585349</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>-36.563871183027295,174.69617642695974</t>
+        </is>
+      </c>
+      <c r="F577" t="inlineStr">
+        <is>
+          <t>-36.56454260370324,174.69582938478425</t>
+        </is>
+      </c>
+      <c r="G577" t="inlineStr">
+        <is>
+          <t>-36.565172979116404,174.6954141371355</t>
+        </is>
+      </c>
+      <c r="H577" t="inlineStr">
+        <is>
+          <t>-36.56584767603328,174.6951472997047</t>
+        </is>
+      </c>
+      <c r="I577" t="inlineStr">
+        <is>
+          <t>-36.566544358020806,174.69494020029308</t>
+        </is>
+      </c>
+      <c r="J577" t="inlineStr">
+        <is>
+          <t>-36.56723666861836,174.6948112354158</t>
+        </is>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>-36.56794306901388,174.69479953873918</t>
+        </is>
+      </c>
+      <c r="L577" t="inlineStr">
+        <is>
+          <t>-36.568653942876715,174.69489014447896</t>
+        </is>
+      </c>
+      <c r="M577" t="inlineStr">
+        <is>
+          <t>-36.56933576472768,174.6948945054374</t>
+        </is>
+      </c>
+      <c r="N577" t="inlineStr">
+        <is>
+          <t>-36.570006862322614,174.69506825876365</t>
+        </is>
+      </c>
+      <c r="O577" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>-36.5620163978684,174.69783803313027</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr"/>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>-36.563214210971154,174.69658317448017</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>-36.56387433121732,174.69618649707402</t>
+        </is>
+      </c>
+      <c r="F578" t="inlineStr">
+        <is>
+          <t>-36.56452227516884,174.69577873833725</t>
+        </is>
+      </c>
+      <c r="G578" t="inlineStr">
+        <is>
+          <t>-36.56519608649917,174.69548506547378</t>
+        </is>
+      </c>
+      <c r="H578" t="inlineStr">
+        <is>
+          <t>-36.5658564914725,174.6951858531396</t>
+        </is>
+      </c>
+      <c r="I578" t="inlineStr">
+        <is>
+          <t>-36.566534998051736,174.69489105084494</t>
+        </is>
+      </c>
+      <c r="J578" t="inlineStr">
+        <is>
+          <t>-36.567231557350716,174.69475820669697</t>
+        </is>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>-36.56794280557918,174.6947902811527</t>
+        </is>
+      </c>
+      <c r="L578" t="inlineStr">
+        <is>
+          <t>-36.56865482363719,174.6947586428403</t>
+        </is>
+      </c>
+      <c r="M578" t="inlineStr">
+        <is>
+          <t>-36.56933631614224,174.6948895849675</t>
+        </is>
+      </c>
+      <c r="N578" t="inlineStr">
+        <is>
+          <t>-36.57002531849781,174.69496838813012</t>
+        </is>
+      </c>
+      <c r="O578" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>-36.56197841350621,174.6976797663173</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>-36.56276726547256,174.69780022060826</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr"/>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>-36.563867296639785,174.69616399557833</t>
+        </is>
+      </c>
+      <c r="F579" t="inlineStr">
+        <is>
+          <t>-36.56451356293298,174.69575703272506</t>
+        </is>
+      </c>
+      <c r="G579" t="inlineStr">
+        <is>
+          <t>-36.56516145915864,174.69537877657706</t>
+        </is>
+      </c>
+      <c r="H579" t="inlineStr">
+        <is>
+          <t>-36.56584584904011,174.69513930954218</t>
+        </is>
+      </c>
+      <c r="I579" t="inlineStr">
+        <is>
+          <t>-36.56654895516621,174.6949643400703</t>
+        </is>
+      </c>
+      <c r="J579" t="inlineStr">
+        <is>
+          <t>-36.567240657101486,174.69485261557094</t>
+        </is>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>-36.567944832736714,174.69486151990557</t>
+        </is>
+      </c>
+      <c r="L579" t="inlineStr">
+        <is>
+          <t>-36.56865441358154,174.694819868753</t>
+        </is>
+      </c>
+      <c r="M579" t="inlineStr">
+        <is>
+          <t>-36.56934373350707,174.69482339697802</t>
+        </is>
+      </c>
+      <c r="N579" t="inlineStr">
+        <is>
+          <t>-36.570032960696416,174.69492703427994</t>
+        </is>
+      </c>
+      <c r="O579" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0137/nzd0137.xlsx
+++ b/data/nzd0137/nzd0137.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O579"/>
+  <dimension ref="A1:O581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25939,6 +25939,104 @@
         </is>
       </c>
     </row>
+    <row r="580">
+      <c r="A580" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>441.96</v>
+      </c>
+      <c r="C580" t="n">
+        <v>441.17</v>
+      </c>
+      <c r="D580" t="n">
+        <v>387.1</v>
+      </c>
+      <c r="E580" t="n">
+        <v>365.2166666666667</v>
+      </c>
+      <c r="F580" t="n">
+        <v>368.3066666666667</v>
+      </c>
+      <c r="G580" t="n">
+        <v>373.1166666666667</v>
+      </c>
+      <c r="H580" t="n">
+        <v>381.8566666666667</v>
+      </c>
+      <c r="I580" t="n">
+        <v>379.01</v>
+      </c>
+      <c r="J580" t="n">
+        <v>388.87</v>
+      </c>
+      <c r="K580" t="n">
+        <v>380.4463636363636</v>
+      </c>
+      <c r="L580" t="n">
+        <v>386.35</v>
+      </c>
+      <c r="M580" t="n">
+        <v>376.7807692307693</v>
+      </c>
+      <c r="N580" t="n">
+        <v>372.4676470588236</v>
+      </c>
+      <c r="O580" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr"/>
+      <c r="C581" t="n">
+        <v>477.64</v>
+      </c>
+      <c r="D581" t="inlineStr"/>
+      <c r="E581" t="n">
+        <v>376.8533333333333</v>
+      </c>
+      <c r="F581" t="n">
+        <v>379.3733333333333</v>
+      </c>
+      <c r="G581" t="n">
+        <v>381.8833333333333</v>
+      </c>
+      <c r="H581" t="n">
+        <v>377.0833333333333</v>
+      </c>
+      <c r="I581" t="n">
+        <v>395.01</v>
+      </c>
+      <c r="J581" t="n">
+        <v>390.22</v>
+      </c>
+      <c r="K581" t="n">
+        <v>391.39</v>
+      </c>
+      <c r="L581" t="n">
+        <v>385.75</v>
+      </c>
+      <c r="M581" t="n">
+        <v>372.6138461538461</v>
+      </c>
+      <c r="N581" t="n">
+        <v>381.1511764705882</v>
+      </c>
+      <c r="O581" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25950,7 +26048,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B590"/>
+  <dimension ref="A1:B592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31858,6 +31956,26 @@
       </c>
       <c r="B590" t="n">
         <v>-0.9</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>-0.77</v>
       </c>
     </row>
   </sheetData>
@@ -32025,28 +32143,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.1239538850308499</v>
+        <v>-0.133814557251926</v>
       </c>
       <c r="J2" t="n">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="K2" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L2" t="n">
-        <v>0.000652353244902204</v>
+        <v>0.0007644015399127513</v>
       </c>
       <c r="M2" t="n">
-        <v>27.98921068536076</v>
+        <v>27.95288423281992</v>
       </c>
       <c r="N2" t="n">
-        <v>1236.452118273856</v>
+        <v>1233.140867785313</v>
       </c>
       <c r="O2" t="n">
-        <v>35.1632211020813</v>
+        <v>35.11610553272264</v>
       </c>
       <c r="P2" t="n">
-        <v>460.9677328233583</v>
+        <v>461.0752916823091</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32103,28 +32221,28 @@
         <v>0.0103</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3740270080994243</v>
+        <v>-0.3635914162963473</v>
       </c>
       <c r="J3" t="n">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="K3" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L3" t="n">
-        <v>0.008087048957928444</v>
+        <v>0.007706516611276748</v>
       </c>
       <c r="M3" t="n">
-        <v>23.93041600894235</v>
+        <v>23.90147185028979</v>
       </c>
       <c r="N3" t="n">
-        <v>827.6101344620006</v>
+        <v>825.4270637888063</v>
       </c>
       <c r="O3" t="n">
-        <v>28.76821396023744</v>
+        <v>28.73024649718144</v>
       </c>
       <c r="P3" t="n">
-        <v>459.6113219259576</v>
+        <v>459.4925146031904</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32181,28 +32299,28 @@
         <v>0.0215</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1376261531589397</v>
+        <v>-0.1445150619250661</v>
       </c>
       <c r="J4" t="n">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="K4" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003484244389681534</v>
+        <v>0.003855969199879072</v>
       </c>
       <c r="M4" t="n">
-        <v>13.47762914420257</v>
+        <v>13.47351321880509</v>
       </c>
       <c r="N4" t="n">
-        <v>283.2196417441236</v>
+        <v>282.8353155353509</v>
       </c>
       <c r="O4" t="n">
-        <v>16.8291307483222</v>
+        <v>16.81770839131631</v>
       </c>
       <c r="P4" t="n">
-        <v>403.0497382048398</v>
+        <v>403.1244937082744</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32259,28 +32377,28 @@
         <v>0.0316</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1183922777125658</v>
+        <v>-0.125181873851759</v>
       </c>
       <c r="J5" t="n">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="K5" t="n">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004667710617424214</v>
+        <v>0.00524971933742413</v>
       </c>
       <c r="M5" t="n">
-        <v>9.700936345712336</v>
+        <v>9.689009798546127</v>
       </c>
       <c r="N5" t="n">
-        <v>157.8649526544489</v>
+        <v>157.5479555943425</v>
       </c>
       <c r="O5" t="n">
-        <v>12.56443204663262</v>
+        <v>12.55181084920987</v>
       </c>
       <c r="P5" t="n">
-        <v>381.6839737063349</v>
+        <v>381.7567399722025</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32337,28 +32455,28 @@
         <v>0.0308</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1321711566400157</v>
+        <v>-0.1340470241822825</v>
       </c>
       <c r="J6" t="n">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="K6" t="n">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L6" t="n">
-        <v>0.007835232198375897</v>
+        <v>0.008120678901466061</v>
       </c>
       <c r="M6" t="n">
-        <v>8.155601761010647</v>
+        <v>8.144924836489183</v>
       </c>
       <c r="N6" t="n">
-        <v>116.1868166104749</v>
+        <v>115.8171399855815</v>
       </c>
       <c r="O6" t="n">
-        <v>10.77899886865542</v>
+        <v>10.76183720307929</v>
       </c>
       <c r="P6" t="n">
-        <v>379.4058010985779</v>
+        <v>379.4258212084659</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32415,28 +32533,28 @@
         <v>0.0318</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.09051808632725571</v>
+        <v>-0.09266013329310288</v>
       </c>
       <c r="J7" t="n">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="K7" t="n">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003680517909353531</v>
+        <v>0.003887923972845542</v>
       </c>
       <c r="M7" t="n">
-        <v>8.180375502606685</v>
+        <v>8.164477540159419</v>
       </c>
       <c r="N7" t="n">
-        <v>115.1814395077915</v>
+        <v>114.7856176711013</v>
       </c>
       <c r="O7" t="n">
-        <v>10.73226162128894</v>
+        <v>10.71380500434376</v>
       </c>
       <c r="P7" t="n">
-        <v>382.3114474377845</v>
+        <v>382.3343314591434</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32493,28 +32611,28 @@
         <v>0.0313</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.01868539764469983</v>
+        <v>-0.01781429899937122</v>
       </c>
       <c r="J8" t="n">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="K8" t="n">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002079599851767533</v>
+        <v>0.0001906828040788566</v>
       </c>
       <c r="M8" t="n">
-        <v>6.959690261071832</v>
+        <v>6.940435981151806</v>
       </c>
       <c r="N8" t="n">
-        <v>87.15032164368434</v>
+        <v>86.79426907413338</v>
       </c>
       <c r="O8" t="n">
-        <v>9.335433661254539</v>
+        <v>9.316344190407168</v>
       </c>
       <c r="P8" t="n">
-        <v>378.9576525846004</v>
+        <v>378.9482954086766</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32571,28 +32689,28 @@
         <v>0.0406</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03422520447741453</v>
+        <v>0.04030839210112502</v>
       </c>
       <c r="J9" t="n">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="K9" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0006985742613880852</v>
+        <v>0.0009720958539094493</v>
       </c>
       <c r="M9" t="n">
-        <v>7.008996412648957</v>
+        <v>7.015983960626725</v>
       </c>
       <c r="N9" t="n">
-        <v>86.7469699601433</v>
+        <v>86.85646758714053</v>
       </c>
       <c r="O9" t="n">
-        <v>9.313805342616051</v>
+        <v>9.319681732073287</v>
       </c>
       <c r="P9" t="n">
-        <v>379.1572585318908</v>
+        <v>379.0919531422042</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32649,28 +32767,28 @@
         <v>0.044</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.04217919902752752</v>
+        <v>-0.04065017451384227</v>
       </c>
       <c r="J10" t="n">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="K10" t="n">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0009506892013806389</v>
+        <v>0.0008909974058096681</v>
       </c>
       <c r="M10" t="n">
-        <v>7.551688666015044</v>
+        <v>7.527645562518091</v>
       </c>
       <c r="N10" t="n">
-        <v>96.39083743560356</v>
+        <v>95.99233693288819</v>
       </c>
       <c r="O10" t="n">
-        <v>9.817883551743908</v>
+        <v>9.797567909072546</v>
       </c>
       <c r="P10" t="n">
-        <v>388.8787085493516</v>
+        <v>388.8623167378055</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32727,28 +32845,28 @@
         <v>0.0563</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.003422984857389488</v>
+        <v>-0.005598611373827684</v>
       </c>
       <c r="J11" t="n">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="K11" t="n">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="L11" t="n">
-        <v>9.755198856153946e-06</v>
+        <v>2.626055678722761e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>6.068123406870386</v>
+        <v>6.064856094345171</v>
       </c>
       <c r="N11" t="n">
-        <v>63.29753753392043</v>
+        <v>63.18104240626641</v>
       </c>
       <c r="O11" t="n">
-        <v>7.955974958100386</v>
+        <v>7.948650351239914</v>
       </c>
       <c r="P11" t="n">
-        <v>388.5861361581303</v>
+        <v>388.6093414035665</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32805,28 +32923,28 @@
         <v>0.0514</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0466592848078895</v>
+        <v>0.0390462454720982</v>
       </c>
       <c r="J12" t="n">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="K12" t="n">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001519461292600499</v>
+        <v>0.001069299969738369</v>
       </c>
       <c r="M12" t="n">
-        <v>6.220042150230253</v>
+        <v>6.228041471596795</v>
       </c>
       <c r="N12" t="n">
-        <v>76.18077214803358</v>
+        <v>76.19306599560858</v>
       </c>
       <c r="O12" t="n">
-        <v>8.728159722875928</v>
+        <v>8.72886395790475</v>
       </c>
       <c r="P12" t="n">
-        <v>393.7740664507609</v>
+        <v>393.8543685336829</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -32883,28 +33001,28 @@
         <v>0.0709</v>
       </c>
       <c r="I13" t="n">
-        <v>0.07395415350615024</v>
+        <v>0.05871889645810691</v>
       </c>
       <c r="J13" t="n">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="K13" t="n">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L13" t="n">
-        <v>0.004113601303518344</v>
+        <v>0.002572670168939473</v>
       </c>
       <c r="M13" t="n">
-        <v>6.013002695573702</v>
+        <v>6.051551733115976</v>
       </c>
       <c r="N13" t="n">
-        <v>69.85704782670375</v>
+        <v>70.86778463649915</v>
       </c>
       <c r="O13" t="n">
-        <v>8.358052872930617</v>
+        <v>8.418300578887591</v>
       </c>
       <c r="P13" t="n">
-        <v>389.8809982370441</v>
+        <v>390.0425936905187</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -32961,28 +33079,28 @@
         <v>0.09039999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>0.08344820036131211</v>
+        <v>0.07344859524568927</v>
       </c>
       <c r="J14" t="n">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="K14" t="n">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00547304538204374</v>
+        <v>0.004243586649871789</v>
       </c>
       <c r="M14" t="n">
-        <v>6.439906050702885</v>
+        <v>6.460818420691084</v>
       </c>
       <c r="N14" t="n">
-        <v>66.83159930894084</v>
+        <v>67.17982329095112</v>
       </c>
       <c r="O14" t="n">
-        <v>8.17505959054372</v>
+        <v>8.196329867138774</v>
       </c>
       <c r="P14" t="n">
-        <v>385.8857390822114</v>
+        <v>385.9917355590617</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33020,7 +33138,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O579"/>
+  <dimension ref="A1:O581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69507,6 +69625,152 @@
         </is>
       </c>
     </row>
+    <row r="580">
+      <c r="A580" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>-36.56200868793401,174.6978059085961</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>-36.56269851950073,174.69753024955082</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>-36.56323373550813,174.6966595352836</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>-36.56386526659885,174.6961575020919</t>
+        </is>
+      </c>
+      <c r="F580" t="inlineStr">
+        <is>
+          <t>-36.56452663797665,174.69578960781612</t>
+        </is>
+      </c>
+      <c r="G580" t="inlineStr">
+        <is>
+          <t>-36.56517504910767,174.69542049098692</t>
+        </is>
+      </c>
+      <c r="H580" t="inlineStr">
+        <is>
+          <t>-36.56587120569029,174.6952502044305</t>
+        </is>
+      </c>
+      <c r="I580" t="inlineStr">
+        <is>
+          <t>-36.566551895680035,174.69497978083015</t>
+        </is>
+      </c>
+      <c r="J580" t="inlineStr">
+        <is>
+          <t>-36.567245383381774,174.69490165050482</t>
+        </is>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>-36.56794214150106,174.6947669443203</t>
+        </is>
+      </c>
+      <c r="L580" t="inlineStr">
+        <is>
+          <t>-36.568654608885694,174.6947907082364</t>
+        </is>
+      </c>
+      <c r="M580" t="inlineStr">
+        <is>
+          <t>-36.569355581181135,174.69471767493698</t>
+        </is>
+      </c>
+      <c r="N580" t="inlineStr">
+        <is>
+          <t>-36.57004619214425,174.69485543540114</t>
+        </is>
+      </c>
+      <c r="O580" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr"/>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>-36.56279746032898,174.69791879920047</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr"/>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>-36.56390316425493,174.6962787254679</t>
+        </is>
+      </c>
+      <c r="F581" t="inlineStr">
+        <is>
+          <t>-36.564571068967105,174.69590030319034</t>
+        </is>
+      </c>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>-36.56520463644479,174.69551130965993</t>
+        </is>
+      </c>
+      <c r="H581" t="inlineStr">
+        <is>
+          <t>-36.56585947364422,174.69519889538157</t>
+        </is>
+      </c>
+      <c r="I581" t="inlineStr">
+        <is>
+          <t>-36.5665850280897,174.6951537612983</t>
+        </is>
+      </c>
+      <c r="J581" t="inlineStr">
+        <is>
+          <t>-36.56724682692485,174.69491662723905</t>
+        </is>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>-36.567945618689286,174.69488914040292</t>
+        </is>
+      </c>
+      <c r="L581" t="inlineStr">
+        <is>
+          <t>-36.56865465378218,174.69478400466932</t>
+        </is>
+      </c>
+      <c r="M581" t="inlineStr">
+        <is>
+          <t>-36.56936074894737,174.69467156039988</t>
+        </is>
+      </c>
+      <c r="N581" t="inlineStr">
+        <is>
+          <t>-36.57002871516381,174.6949500079304</t>
+        </is>
+      </c>
+      <c r="O581" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0137/nzd0137.xlsx
+++ b/data/nzd0137/nzd0137.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O581"/>
+  <dimension ref="A1:O582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26037,6 +26037,55 @@
         </is>
       </c>
     </row>
+    <row r="582">
+      <c r="A582" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>437.56</v>
+      </c>
+      <c r="C582" t="inlineStr"/>
+      <c r="D582" t="n">
+        <v>393.97</v>
+      </c>
+      <c r="E582" t="n">
+        <v>368.3033333333333</v>
+      </c>
+      <c r="F582" t="n">
+        <v>368.9333333333333</v>
+      </c>
+      <c r="G582" t="n">
+        <v>371.5433333333333</v>
+      </c>
+      <c r="H582" t="n">
+        <v>368.4433333333333</v>
+      </c>
+      <c r="I582" t="n">
+        <v>373.41</v>
+      </c>
+      <c r="J582" t="n">
+        <v>382.16</v>
+      </c>
+      <c r="K582" t="n">
+        <v>382.2809090909091</v>
+      </c>
+      <c r="L582" t="n">
+        <v>387.65</v>
+      </c>
+      <c r="M582" t="n">
+        <v>386.9369230769231</v>
+      </c>
+      <c r="N582" t="n">
+        <v>379.2870588235294</v>
+      </c>
+      <c r="O582" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -26048,7 +26097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B592"/>
+  <dimension ref="A1:B593"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31976,6 +32025,16 @@
       </c>
       <c r="B592" t="n">
         <v>-0.77</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>-0.71</v>
       </c>
     </row>
   </sheetData>
@@ -33138,7 +33197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O581"/>
+  <dimension ref="A1:O582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69771,6 +69830,79 @@
         </is>
       </c>
     </row>
+    <row r="582">
+      <c r="A582" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>-36.56199738001427,174.69775879262363</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr"/>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>-36.56325244307198,174.69673270110874</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>-36.56387531909745,174.6961896570066</t>
+        </is>
+      </c>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>-36.56452915395124,174.6957958761051</t>
+        </is>
+      </c>
+      <c r="G582" t="inlineStr">
+        <is>
+          <t>-36.56516973912937,174.6954041919774</t>
+        </is>
+      </c>
+      <c r="H582" t="inlineStr">
+        <is>
+          <t>-36.56583823792814,174.69510602317393</t>
+        </is>
+      </c>
+      <c r="I582" t="inlineStr">
+        <is>
+          <t>-36.566540299275694,174.69491888769915</t>
+        </is>
+      </c>
+      <c r="J582" t="inlineStr">
+        <is>
+          <t>-36.56723820840981,174.6948272105959</t>
+        </is>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>-36.56794272441112,174.69478742876038</t>
+        </is>
+      </c>
+      <c r="L582" t="inlineStr">
+        <is>
+          <t>-36.56865451160866,174.69480523263172</t>
+        </is>
+      </c>
+      <c r="M582" t="inlineStr">
+        <is>
+          <t>-36.569342985571225,174.6948300711116</t>
+        </is>
+      </c>
+      <c r="N582" t="inlineStr">
+        <is>
+          <t>-36.570032467002534,174.69492970578375</t>
+        </is>
+      </c>
+      <c r="O582" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0137/nzd0137.xlsx
+++ b/data/nzd0137/nzd0137.xlsx
@@ -32202,28 +32202,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.133814557251926</v>
+        <v>-0.1462940341267281</v>
       </c>
       <c r="J2" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K2" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0007644015399127513</v>
+        <v>0.0009181805469709037</v>
       </c>
       <c r="M2" t="n">
-        <v>27.95288423281992</v>
+        <v>27.93150483507408</v>
       </c>
       <c r="N2" t="n">
-        <v>1233.140867785313</v>
+        <v>1230.352767124363</v>
       </c>
       <c r="O2" t="n">
-        <v>35.11610553272264</v>
+        <v>35.07638474991919</v>
       </c>
       <c r="P2" t="n">
-        <v>461.0752916823091</v>
+        <v>461.2118768783447</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32283,7 +32283,7 @@
         <v>-0.3635914162963473</v>
       </c>
       <c r="J3" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K3" t="n">
         <v>371</v>
@@ -32358,28 +32358,28 @@
         <v>0.0215</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1445150619250661</v>
+        <v>-0.1475046960836818</v>
       </c>
       <c r="J4" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K4" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003855969199879072</v>
+        <v>0.004037921329423155</v>
       </c>
       <c r="M4" t="n">
-        <v>13.47351321880509</v>
+        <v>13.44946370796089</v>
       </c>
       <c r="N4" t="n">
-        <v>282.8353155353509</v>
+        <v>282.0962961117124</v>
       </c>
       <c r="O4" t="n">
-        <v>16.81770839131631</v>
+        <v>16.79572255402287</v>
       </c>
       <c r="P4" t="n">
-        <v>403.1244937082744</v>
+        <v>403.1570419742913</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32436,28 +32436,28 @@
         <v>0.0316</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.125181873851759</v>
+        <v>-0.1297513133338409</v>
       </c>
       <c r="J5" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K5" t="n">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00524971933742413</v>
+        <v>0.005655073896841278</v>
       </c>
       <c r="M5" t="n">
-        <v>9.689009798546127</v>
+        <v>9.688906820735729</v>
       </c>
       <c r="N5" t="n">
-        <v>157.5479555943425</v>
+        <v>157.4201621741049</v>
       </c>
       <c r="O5" t="n">
-        <v>12.55181084920987</v>
+        <v>12.54671917969414</v>
       </c>
       <c r="P5" t="n">
-        <v>381.7567399722025</v>
+        <v>381.805864697627</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32514,28 +32514,28 @@
         <v>0.0308</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1340470241822825</v>
+        <v>-0.1371511277670922</v>
       </c>
       <c r="J6" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K6" t="n">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L6" t="n">
-        <v>0.008120678901466061</v>
+        <v>0.008528846781995059</v>
       </c>
       <c r="M6" t="n">
-        <v>8.144924836489183</v>
+        <v>8.144555681224768</v>
       </c>
       <c r="N6" t="n">
-        <v>115.8171399855815</v>
+        <v>115.6640114900428</v>
       </c>
       <c r="O6" t="n">
-        <v>10.76183720307929</v>
+        <v>10.75472042826046</v>
       </c>
       <c r="P6" t="n">
-        <v>379.4258212084659</v>
+        <v>379.4590854621458</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32592,28 +32592,28 @@
         <v>0.0318</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.09266013329310288</v>
+        <v>-0.09632382474106625</v>
       </c>
       <c r="J7" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K7" t="n">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003887923972845542</v>
+        <v>0.004213813057220017</v>
       </c>
       <c r="M7" t="n">
-        <v>8.164477540159419</v>
+        <v>8.166349667718913</v>
       </c>
       <c r="N7" t="n">
-        <v>114.7856176711013</v>
+        <v>114.6863328350563</v>
       </c>
       <c r="O7" t="n">
-        <v>10.71380500434376</v>
+        <v>10.70917050172684</v>
       </c>
       <c r="P7" t="n">
-        <v>382.3343314591434</v>
+        <v>382.3736090262808</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32670,28 +32670,28 @@
         <v>0.0313</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.01781429899937122</v>
+        <v>-0.02219187338795893</v>
       </c>
       <c r="J8" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K8" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001906828040788566</v>
+        <v>0.0002964653914094839</v>
       </c>
       <c r="M8" t="n">
-        <v>6.940435981151806</v>
+        <v>6.9424106645869</v>
       </c>
       <c r="N8" t="n">
-        <v>86.79426907413338</v>
+        <v>86.82363943695356</v>
       </c>
       <c r="O8" t="n">
-        <v>9.316344190407168</v>
+        <v>9.317920338624576</v>
       </c>
       <c r="P8" t="n">
-        <v>378.9482954086766</v>
+        <v>378.9955022614146</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32748,28 +32748,28 @@
         <v>0.0406</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04030839210112502</v>
+        <v>0.03737175481992902</v>
       </c>
       <c r="J9" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K9" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0009720958539094493</v>
+        <v>0.0008385898017284621</v>
       </c>
       <c r="M9" t="n">
-        <v>7.015983960626725</v>
+        <v>7.013999183507211</v>
       </c>
       <c r="N9" t="n">
-        <v>86.85646758714053</v>
+        <v>86.76525663204234</v>
       </c>
       <c r="O9" t="n">
-        <v>9.319681732073287</v>
+        <v>9.314786988012251</v>
       </c>
       <c r="P9" t="n">
-        <v>379.0919531422042</v>
+        <v>379.1235382256132</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32826,28 +32826,28 @@
         <v>0.044</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.04065017451384227</v>
+        <v>-0.04308409271818631</v>
       </c>
       <c r="J10" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K10" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0008909974058096681</v>
+        <v>0.001004617843003763</v>
       </c>
       <c r="M10" t="n">
-        <v>7.527645562518091</v>
+        <v>7.522294375812727</v>
       </c>
       <c r="N10" t="n">
-        <v>95.99233693288819</v>
+        <v>95.85440729700048</v>
       </c>
       <c r="O10" t="n">
-        <v>9.797567909072546</v>
+        <v>9.790526405510608</v>
       </c>
       <c r="P10" t="n">
-        <v>388.8623167378055</v>
+        <v>388.8884686022211</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32904,28 +32904,28 @@
         <v>0.0563</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.005598611373827684</v>
+        <v>-0.008210273458487427</v>
       </c>
       <c r="J11" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K11" t="n">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L11" t="n">
-        <v>2.626055678722761e-05</v>
+        <v>5.664771548119507e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>6.064856094345171</v>
+        <v>6.064271080027871</v>
       </c>
       <c r="N11" t="n">
-        <v>63.18104240626641</v>
+        <v>63.12634624756343</v>
       </c>
       <c r="O11" t="n">
-        <v>7.948650351239914</v>
+        <v>7.945209012201216</v>
       </c>
       <c r="P11" t="n">
-        <v>388.6093414035665</v>
+        <v>388.6373043329709</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32982,28 +32982,28 @@
         <v>0.0514</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0390462454720982</v>
+        <v>0.03597440698515558</v>
       </c>
       <c r="J12" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K12" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001069299969738369</v>
+        <v>0.0009105373810626149</v>
       </c>
       <c r="M12" t="n">
-        <v>6.228041471596795</v>
+        <v>6.228705836754223</v>
       </c>
       <c r="N12" t="n">
-        <v>76.19306599560858</v>
+        <v>76.14019846871192</v>
       </c>
       <c r="O12" t="n">
-        <v>8.72886395790475</v>
+        <v>8.725835115833435</v>
       </c>
       <c r="P12" t="n">
-        <v>393.8543685336829</v>
+        <v>393.8868535454755</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33060,28 +33060,28 @@
         <v>0.0709</v>
       </c>
       <c r="I13" t="n">
-        <v>0.05871889645810691</v>
+        <v>0.0566561031413904</v>
       </c>
       <c r="J13" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K13" t="n">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L13" t="n">
-        <v>0.002572670168939473</v>
+        <v>0.002405059472372018</v>
       </c>
       <c r="M13" t="n">
-        <v>6.051551733115976</v>
+        <v>6.046995060773478</v>
       </c>
       <c r="N13" t="n">
-        <v>70.86778463649915</v>
+        <v>70.75612966449491</v>
       </c>
       <c r="O13" t="n">
-        <v>8.418300578887591</v>
+        <v>8.411666283471718</v>
       </c>
       <c r="P13" t="n">
-        <v>390.0425936905187</v>
+        <v>390.0645277078035</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33138,28 +33138,28 @@
         <v>0.09039999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07344859524568927</v>
+        <v>0.06962064870253555</v>
       </c>
       <c r="J14" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K14" t="n">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L14" t="n">
-        <v>0.004243586649871789</v>
+        <v>0.003822701120152927</v>
       </c>
       <c r="M14" t="n">
-        <v>6.460818420691084</v>
+        <v>6.465325131756176</v>
       </c>
       <c r="N14" t="n">
-        <v>67.17982329095112</v>
+        <v>67.19502388167952</v>
       </c>
       <c r="O14" t="n">
-        <v>8.196329867138774</v>
+        <v>8.197257095009252</v>
       </c>
       <c r="P14" t="n">
-        <v>385.9917355590617</v>
+        <v>386.0324252969555</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">

--- a/data/nzd0137/nzd0137.xlsx
+++ b/data/nzd0137/nzd0137.xlsx
@@ -32198,9 +32198,15 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0117</v>
+      </c>
       <c r="I2" t="n">
         <v>-0.1462940341267281</v>
       </c>
@@ -32277,7 +32283,7 @@
         <v>0.01</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0103</v>
+        <v>0.0101</v>
       </c>
       <c r="I3" t="n">
         <v>-0.3635914162963472</v>
@@ -32349,13 +32355,13 @@
         <v>0.166164793393841</v>
       </c>
       <c r="F4" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.02</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.0183</v>
-      </c>
       <c r="H4" t="n">
-        <v>0.0215</v>
+        <v>0.0256</v>
       </c>
       <c r="I4" t="n">
         <v>-0.1475046960836818</v>
@@ -32430,10 +32436,10 @@
         <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0246</v>
+        <v>0.0273</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0316</v>
+        <v>0.0308</v>
       </c>
       <c r="I5" t="n">
         <v>-0.1297607341877104</v>
@@ -32508,10 +32514,10 @@
         <v>0.03</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0274</v>
+        <v>0.0298</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0308</v>
+        <v>0.0328</v>
       </c>
       <c r="I6" t="n">
         <v>-0.1371592787853962</v>
@@ -32583,13 +32589,13 @@
         <v>0.4168174583991067</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0295</v>
+        <v>0.0346</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0318</v>
+        <v>0.0372</v>
       </c>
       <c r="I7" t="n">
         <v>-0.09632768770340029</v>
@@ -32661,13 +32667,13 @@
         <v>0.5001906233700111</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0298</v>
+        <v>0.0347</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0313</v>
+        <v>0.0354</v>
       </c>
       <c r="I8" t="n">
         <v>-0.02220263928445308</v>
@@ -32739,13 +32745,13 @@
         <v>0.5838056496001182</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0391</v>
+        <v>0.046</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0406</v>
+        <v>0.0516</v>
       </c>
       <c r="I9" t="n">
         <v>0.03737175481992902</v>
@@ -32817,13 +32823,13 @@
         <v>0.6670159789025477</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0395</v>
+        <v>0.0549</v>
       </c>
       <c r="H10" t="n">
-        <v>0.044</v>
+        <v>0.0608</v>
       </c>
       <c r="I10" t="n">
         <v>-0.04308409271818631</v>
@@ -32898,10 +32904,10 @@
         <v>0.055</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0496</v>
+        <v>0.0546</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0563</v>
+        <v>0.0587</v>
       </c>
       <c r="I11" t="n">
         <v>-0.008232784567096921</v>
@@ -32973,13 +32979,13 @@
         <v>0.8342460313623683</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0487</v>
+        <v>0.0618</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0514</v>
+        <v>0.0682</v>
       </c>
       <c r="I12" t="n">
         <v>0.03597440698515569</v>
@@ -33051,13 +33057,13 @@
         <v>0.9176469598129633</v>
       </c>
       <c r="F13" t="n">
-        <v>0.065</v>
+        <v>0.08</v>
       </c>
       <c r="G13" t="n">
-        <v>0.064</v>
+        <v>0.0713</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0709</v>
+        <v>0.08550000000000001</v>
       </c>
       <c r="I13" t="n">
         <v>0.05666181438993162</v>
@@ -33129,13 +33135,13 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="G14" t="n">
-        <v>0.079</v>
+        <v>0.1106</v>
       </c>
       <c r="H14" t="n">
-        <v>0.09039999999999999</v>
+        <v>0.1503</v>
       </c>
       <c r="I14" t="n">
         <v>0.06960746361707112</v>
